--- a/database/industries/palayesh/shebandar/product/quarterly_seprated.xlsx
+++ b/database/industries/palayesh/shebandar/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shebandar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5266FED-183D-40C2-84E3-CE32D0F61A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6558976-07EF-4F35-9D4F-AA1BC2EDFAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="70">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -712,12 +712,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -732,7 +732,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -781,7 +781,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -798,7 +798,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -830,7 +830,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -867,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -882,7 +882,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -908,37 +908,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1134094</v>
+        <v>962785</v>
       </c>
       <c r="F11" s="11">
-        <v>962785</v>
+        <v>1022490</v>
       </c>
       <c r="G11" s="11">
-        <v>1022490</v>
+        <v>1136032</v>
       </c>
       <c r="H11" s="11">
-        <v>1136032</v>
+        <v>1004903</v>
       </c>
       <c r="I11" s="11">
-        <v>1004903</v>
+        <v>906500</v>
       </c>
       <c r="J11" s="11">
-        <v>906500</v>
+        <v>962136</v>
       </c>
       <c r="K11" s="11">
-        <v>962136</v>
+        <v>1039430</v>
       </c>
       <c r="L11" s="11">
-        <v>1039430</v>
+        <v>1435039</v>
       </c>
       <c r="M11" s="11">
-        <v>1435039</v>
+        <v>1063093</v>
       </c>
       <c r="N11" s="11">
-        <v>1063093</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1193491</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -947,37 +947,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>50920</v>
+        <v>48112</v>
       </c>
       <c r="F12" s="13">
-        <v>48112</v>
+        <v>53301</v>
       </c>
       <c r="G12" s="13">
-        <v>53301</v>
+        <v>48476</v>
       </c>
       <c r="H12" s="13">
-        <v>48476</v>
+        <v>50569</v>
       </c>
       <c r="I12" s="13">
-        <v>50569</v>
+        <v>56514</v>
       </c>
       <c r="J12" s="13">
-        <v>56514</v>
+        <v>64946</v>
       </c>
       <c r="K12" s="13">
-        <v>64946</v>
+        <v>67976</v>
       </c>
       <c r="L12" s="13">
-        <v>67976</v>
+        <v>49117</v>
       </c>
       <c r="M12" s="13">
-        <v>49117</v>
+        <v>62626</v>
       </c>
       <c r="N12" s="13">
-        <v>62626</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51495</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -986,37 +986,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>574121</v>
+        <v>415201</v>
       </c>
       <c r="F13" s="11">
-        <v>415201</v>
+        <v>409220</v>
       </c>
       <c r="G13" s="11">
-        <v>409220</v>
+        <v>430183</v>
       </c>
       <c r="H13" s="11">
-        <v>430183</v>
+        <v>412798</v>
       </c>
       <c r="I13" s="11">
-        <v>412798</v>
+        <v>333341</v>
       </c>
       <c r="J13" s="11">
-        <v>333341</v>
+        <v>405876</v>
       </c>
       <c r="K13" s="11">
-        <v>405876</v>
+        <v>400247</v>
       </c>
       <c r="L13" s="11">
-        <v>400247</v>
+        <v>413845</v>
       </c>
       <c r="M13" s="11">
-        <v>413845</v>
+        <v>494024</v>
       </c>
       <c r="N13" s="11">
-        <v>494024</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>510483</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -1025,37 +1025,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>-8868</v>
+        <v>114296</v>
       </c>
       <c r="F14" s="13">
-        <v>114296</v>
+        <v>264864</v>
       </c>
       <c r="G14" s="13">
-        <v>264864</v>
+        <v>195090</v>
       </c>
       <c r="H14" s="13">
-        <v>195090</v>
+        <v>-924461</v>
       </c>
       <c r="I14" s="13">
-        <v>-924461</v>
+        <v>14574</v>
       </c>
       <c r="J14" s="13">
-        <v>14574</v>
+        <v>376490</v>
       </c>
       <c r="K14" s="13">
-        <v>376490</v>
+        <v>92360</v>
       </c>
       <c r="L14" s="13">
-        <v>92360</v>
+        <v>189462</v>
       </c>
       <c r="M14" s="13">
-        <v>189462</v>
+        <v>454663</v>
       </c>
       <c r="N14" s="13">
-        <v>454663</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>400211</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1064,37 +1064,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>190045</v>
+        <v>276501</v>
       </c>
       <c r="F15" s="11">
-        <v>276501</v>
+        <v>212399</v>
       </c>
       <c r="G15" s="11">
-        <v>212399</v>
+        <v>73114</v>
       </c>
       <c r="H15" s="11">
-        <v>73114</v>
+        <v>87117</v>
       </c>
       <c r="I15" s="11">
-        <v>87117</v>
+        <v>178018</v>
       </c>
       <c r="J15" s="11">
-        <v>178018</v>
+        <v>211141</v>
       </c>
       <c r="K15" s="11">
-        <v>211141</v>
+        <v>51389</v>
       </c>
       <c r="L15" s="11">
-        <v>51389</v>
+        <v>50394</v>
       </c>
       <c r="M15" s="11">
-        <v>50394</v>
+        <v>102750</v>
       </c>
       <c r="N15" s="11">
-        <v>102750</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>225228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>22</v>
       </c>
@@ -1103,37 +1103,37 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>82566</v>
+        <v>63466</v>
       </c>
       <c r="F16" s="13">
-        <v>63466</v>
+        <v>78537</v>
       </c>
       <c r="G16" s="13">
-        <v>78537</v>
+        <v>71631</v>
       </c>
       <c r="H16" s="13">
-        <v>71631</v>
+        <v>72098</v>
       </c>
       <c r="I16" s="13">
-        <v>72098</v>
+        <v>81607</v>
       </c>
       <c r="J16" s="13">
-        <v>81607</v>
+        <v>93986</v>
       </c>
       <c r="K16" s="13">
-        <v>93986</v>
+        <v>88033</v>
       </c>
       <c r="L16" s="13">
-        <v>88033</v>
+        <v>95650</v>
       </c>
       <c r="M16" s="13">
-        <v>95650</v>
+        <v>96071</v>
       </c>
       <c r="N16" s="13">
-        <v>96071</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>79062</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1142,37 +1142,37 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>12799</v>
+        <v>2674</v>
       </c>
       <c r="F17" s="11">
-        <v>2674</v>
+        <v>13158</v>
       </c>
       <c r="G17" s="11">
-        <v>13158</v>
+        <v>9922</v>
       </c>
       <c r="H17" s="11">
-        <v>9922</v>
+        <v>8824</v>
       </c>
       <c r="I17" s="11">
-        <v>8824</v>
+        <v>10000</v>
       </c>
       <c r="J17" s="11">
-        <v>10000</v>
+        <v>4750</v>
       </c>
       <c r="K17" s="11">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="L17" s="11">
-        <v>4250</v>
+        <v>6315</v>
       </c>
       <c r="M17" s="11">
-        <v>6315</v>
+        <v>13685</v>
       </c>
       <c r="N17" s="11">
-        <v>13685</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
@@ -1181,37 +1181,37 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>1521121</v>
+        <v>1168144</v>
       </c>
       <c r="F18" s="13">
-        <v>1168144</v>
+        <v>1466860</v>
       </c>
       <c r="G18" s="13">
-        <v>1466860</v>
+        <v>1538201</v>
       </c>
       <c r="H18" s="13">
-        <v>1538201</v>
+        <v>1564055</v>
       </c>
       <c r="I18" s="13">
-        <v>1564055</v>
+        <v>1465587</v>
       </c>
       <c r="J18" s="13">
-        <v>1465587</v>
+        <v>1530397</v>
       </c>
       <c r="K18" s="13">
-        <v>1530397</v>
+        <v>1489606</v>
       </c>
       <c r="L18" s="13">
-        <v>1489606</v>
+        <v>1760120</v>
       </c>
       <c r="M18" s="13">
-        <v>1760120</v>
+        <v>1764275</v>
       </c>
       <c r="N18" s="13">
-        <v>1764275</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1592484</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
@@ -1220,37 +1220,37 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>8171</v>
+        <v>11950</v>
       </c>
       <c r="F19" s="11">
-        <v>11950</v>
+        <v>13940</v>
       </c>
       <c r="G19" s="11">
-        <v>13940</v>
+        <v>9106</v>
       </c>
       <c r="H19" s="11">
-        <v>9106</v>
+        <v>10946</v>
       </c>
       <c r="I19" s="11">
-        <v>10946</v>
+        <v>13194</v>
       </c>
       <c r="J19" s="11">
-        <v>13194</v>
+        <v>10784</v>
       </c>
       <c r="K19" s="11">
-        <v>10784</v>
+        <v>7923</v>
       </c>
       <c r="L19" s="11">
-        <v>7923</v>
+        <v>10557</v>
       </c>
       <c r="M19" s="11">
-        <v>10557</v>
+        <v>4703</v>
       </c>
       <c r="N19" s="11">
-        <v>4703</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14457</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
@@ -1273,23 +1273,23 @@
       <c r="I20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>27</v>
+      <c r="J20" s="13">
+        <v>0</v>
       </c>
       <c r="K20" s="13">
         <v>0</v>
       </c>
       <c r="L20" s="13">
-        <v>0</v>
+        <v>100030</v>
       </c>
       <c r="M20" s="13">
-        <v>100030</v>
+        <v>4346</v>
       </c>
       <c r="N20" s="13">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1298,37 +1298,37 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F21" s="11">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G21" s="11">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H21" s="11">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I21" s="11">
         <v>54</v>
       </c>
       <c r="J21" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K21" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L21" s="11">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M21" s="11">
         <v>55</v>
       </c>
       <c r="N21" s="11">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
@@ -1351,11 +1351,11 @@
       <c r="I22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="13">
-        <v>0</v>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>27</v>
@@ -1367,7 +1367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1390,11 +1390,11 @@
       <c r="I23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>27</v>
@@ -1406,7 +1406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
@@ -1415,37 +1415,37 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>35765</v>
+        <v>36386</v>
       </c>
       <c r="F24" s="13">
-        <v>36386</v>
+        <v>17241</v>
       </c>
       <c r="G24" s="13">
-        <v>17241</v>
+        <v>7340</v>
       </c>
       <c r="H24" s="13">
-        <v>7340</v>
+        <v>16949</v>
       </c>
       <c r="I24" s="13">
-        <v>16949</v>
+        <v>17591</v>
       </c>
       <c r="J24" s="13">
-        <v>17591</v>
+        <v>6555</v>
       </c>
       <c r="K24" s="13">
-        <v>6555</v>
+        <v>2983</v>
       </c>
       <c r="L24" s="13">
-        <v>2983</v>
+        <v>2850</v>
       </c>
       <c r="M24" s="13">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="N24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1454,37 +1454,37 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>9568</v>
+        <v>9637</v>
       </c>
       <c r="F25" s="11">
-        <v>9637</v>
+        <v>3222</v>
       </c>
       <c r="G25" s="11">
-        <v>3222</v>
+        <v>5543</v>
       </c>
       <c r="H25" s="11">
-        <v>5543</v>
+        <v>4014</v>
       </c>
       <c r="I25" s="11">
-        <v>4014</v>
+        <v>10705</v>
       </c>
       <c r="J25" s="11">
-        <v>10705</v>
+        <v>2103</v>
       </c>
       <c r="K25" s="11">
-        <v>2103</v>
+        <v>2286</v>
       </c>
       <c r="L25" s="11">
-        <v>2286</v>
+        <v>3452</v>
       </c>
       <c r="M25" s="11">
-        <v>3452</v>
+        <v>1841</v>
       </c>
       <c r="N25" s="11">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>33</v>
       </c>
@@ -1493,29 +1493,29 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>101926</v>
+        <v>26771</v>
       </c>
       <c r="F26" s="13">
-        <v>26771</v>
+        <v>4085</v>
       </c>
       <c r="G26" s="13">
-        <v>4085</v>
+        <v>308</v>
       </c>
       <c r="H26" s="13">
-        <v>308</v>
+        <v>30028</v>
       </c>
       <c r="I26" s="13">
-        <v>30028</v>
+        <v>25430</v>
       </c>
       <c r="J26" s="13">
-        <v>25430</v>
+        <v>14916</v>
       </c>
       <c r="K26" s="13">
-        <v>14916</v>
-      </c>
-      <c r="L26" s="13">
         <v>68923</v>
       </c>
+      <c r="L26" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="M26" s="13" t="s">
         <v>27</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1532,37 +1532,37 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>83170</v>
+        <v>61141</v>
       </c>
       <c r="F27" s="11">
-        <v>61141</v>
+        <v>69241</v>
       </c>
       <c r="G27" s="11">
-        <v>69241</v>
+        <v>116019</v>
       </c>
       <c r="H27" s="11">
-        <v>116019</v>
+        <v>134444</v>
       </c>
       <c r="I27" s="11">
-        <v>134444</v>
+        <v>122688</v>
       </c>
       <c r="J27" s="11">
-        <v>122688</v>
+        <v>107582</v>
       </c>
       <c r="K27" s="11">
-        <v>107582</v>
+        <v>133000</v>
       </c>
       <c r="L27" s="11">
-        <v>133000</v>
+        <v>132754</v>
       </c>
       <c r="M27" s="11">
-        <v>132754</v>
+        <v>100621</v>
       </c>
       <c r="N27" s="11">
-        <v>100621</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>112921</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>35</v>
       </c>
@@ -1585,14 +1585,14 @@
       <c r="I28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="13" t="s">
-        <v>27</v>
+      <c r="J28" s="13">
+        <v>0</v>
       </c>
       <c r="K28" s="13">
         <v>0</v>
       </c>
-      <c r="L28" s="13">
-        <v>0</v>
+      <c r="L28" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>27</v>
@@ -1601,7 +1601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -1624,14 +1624,14 @@
       <c r="I29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>27</v>
+      <c r="J29" s="11">
+        <v>0</v>
       </c>
       <c r="K29" s="11">
         <v>0</v>
       </c>
-      <c r="L29" s="11">
-        <v>0</v>
+      <c r="L29" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>27</v>
@@ -1640,7 +1640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>37</v>
       </c>
@@ -1663,14 +1663,14 @@
       <c r="I30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>27</v>
+      <c r="J30" s="13">
+        <v>0</v>
       </c>
       <c r="K30" s="13">
         <v>0</v>
       </c>
-      <c r="L30" s="13">
-        <v>0</v>
+      <c r="L30" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>27</v>
@@ -1679,44 +1679,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>3795454</v>
+        <v>3197128</v>
       </c>
       <c r="F31" s="15">
-        <v>3197128</v>
+        <v>3628626</v>
       </c>
       <c r="G31" s="15">
-        <v>3628626</v>
+        <v>3641025</v>
       </c>
       <c r="H31" s="15">
-        <v>3641025</v>
+        <v>2472338</v>
       </c>
       <c r="I31" s="15">
-        <v>2472338</v>
+        <v>3235803</v>
       </c>
       <c r="J31" s="15">
-        <v>3235803</v>
+        <v>3791713</v>
       </c>
       <c r="K31" s="15">
-        <v>3791713</v>
+        <v>3448455</v>
       </c>
       <c r="L31" s="15">
-        <v>3448455</v>
+        <v>4249640</v>
       </c>
       <c r="M31" s="15">
-        <v>4249640</v>
+        <v>4162753</v>
       </c>
       <c r="N31" s="15">
-        <v>4162753</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4209515</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1742,37 +1742,37 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>161222</v>
+        <v>94418</v>
       </c>
       <c r="F33" s="11">
-        <v>94418</v>
+        <v>164951</v>
       </c>
       <c r="G33" s="11">
-        <v>164951</v>
+        <v>87994</v>
       </c>
       <c r="H33" s="11">
-        <v>87994</v>
+        <v>38237</v>
       </c>
       <c r="I33" s="11">
-        <v>38237</v>
+        <v>9693</v>
       </c>
       <c r="J33" s="11">
-        <v>9693</v>
-      </c>
-      <c r="K33" s="11">
         <v>-5907</v>
       </c>
+      <c r="K33" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="11" t="s">
-        <v>27</v>
+      <c r="M33" s="11">
+        <v>-13116</v>
       </c>
       <c r="N33" s="11">
-        <v>-13116</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4542</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>20</v>
       </c>
@@ -1781,37 +1781,37 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>956734</v>
+        <v>400771</v>
       </c>
       <c r="F34" s="13">
-        <v>400771</v>
+        <v>775322</v>
       </c>
       <c r="G34" s="13">
-        <v>775322</v>
+        <v>1047043</v>
       </c>
       <c r="H34" s="13">
-        <v>1047043</v>
+        <v>993186</v>
       </c>
       <c r="I34" s="13">
-        <v>993186</v>
+        <v>627445</v>
       </c>
       <c r="J34" s="13">
-        <v>627445</v>
-      </c>
-      <c r="K34" s="13">
         <v>998258</v>
       </c>
+      <c r="K34" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="L34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M34" s="13" t="s">
-        <v>27</v>
+      <c r="M34" s="13">
+        <v>108904</v>
       </c>
       <c r="N34" s="13">
-        <v>108904</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1433245</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
@@ -1843,14 +1843,14 @@
       <c r="L35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="11" t="s">
-        <v>27</v>
+      <c r="M35" s="11">
+        <v>53328</v>
       </c>
       <c r="N35" s="11">
-        <v>53328</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26658</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
@@ -1870,14 +1870,14 @@
       <c r="H36" s="13">
         <v>0</v>
       </c>
-      <c r="I36" s="13">
-        <v>0</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="13">
-        <v>0</v>
+      <c r="I36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>27</v>
@@ -1889,7 +1889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>24</v>
       </c>
@@ -1898,37 +1898,37 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>124800</v>
+        <v>-40909</v>
       </c>
       <c r="F37" s="11">
-        <v>-40909</v>
+        <v>-14836</v>
       </c>
       <c r="G37" s="11">
-        <v>-14836</v>
+        <v>21793</v>
       </c>
       <c r="H37" s="11">
-        <v>21793</v>
+        <v>429</v>
       </c>
       <c r="I37" s="11">
-        <v>429</v>
+        <v>30539</v>
       </c>
       <c r="J37" s="11">
-        <v>30539</v>
-      </c>
-      <c r="K37" s="11">
         <v>22945</v>
       </c>
+      <c r="K37" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="11" t="s">
-        <v>27</v>
+      <c r="M37" s="11">
+        <v>83413</v>
       </c>
       <c r="N37" s="11">
-        <v>83413</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6713</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>33</v>
       </c>
@@ -1948,14 +1948,14 @@
       <c r="H38" s="13">
         <v>0</v>
       </c>
-      <c r="I38" s="13">
-        <v>0</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="13">
-        <v>0</v>
+      <c r="I38" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>27</v>
@@ -1967,44 +1967,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>1242756</v>
+        <v>454280</v>
       </c>
       <c r="F39" s="15">
-        <v>454280</v>
+        <v>925437</v>
       </c>
       <c r="G39" s="15">
-        <v>925437</v>
+        <v>1156830</v>
       </c>
       <c r="H39" s="15">
-        <v>1156830</v>
+        <v>1031852</v>
       </c>
       <c r="I39" s="15">
-        <v>1031852</v>
+        <v>667677</v>
       </c>
       <c r="J39" s="15">
-        <v>667677</v>
+        <v>1015296</v>
       </c>
       <c r="K39" s="15">
-        <v>1015296</v>
+        <v>0</v>
       </c>
       <c r="L39" s="15">
         <v>0</v>
       </c>
       <c r="M39" s="15">
-        <v>0</v>
+        <v>232529</v>
       </c>
       <c r="N39" s="15">
-        <v>232529</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1462074</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>41</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>42</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>43</v>
       </c>
@@ -2072,8 +2072,8 @@
       <c r="F42" s="19">
         <v>0</v>
       </c>
-      <c r="G42" s="19">
-        <v>0</v>
+      <c r="G42" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>27</v>
@@ -2097,7 +2097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>45</v>
       </c>
@@ -2115,11 +2115,11 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-      <c r="I43" s="15">
-        <v>0</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>27</v>
+      <c r="I43" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
       </c>
       <c r="K43" s="15">
         <v>0</v>
@@ -2134,44 +2134,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19">
-        <v>5038210</v>
+        <v>3651408</v>
       </c>
       <c r="F44" s="19">
-        <v>3651408</v>
+        <v>4554063</v>
       </c>
       <c r="G44" s="19">
-        <v>4554063</v>
+        <v>4797855</v>
       </c>
       <c r="H44" s="19">
-        <v>4797855</v>
+        <v>3504190</v>
       </c>
       <c r="I44" s="19">
-        <v>3504190</v>
+        <v>3903480</v>
       </c>
       <c r="J44" s="19">
-        <v>3903480</v>
+        <v>4807009</v>
       </c>
       <c r="K44" s="19">
-        <v>4807009</v>
+        <v>3448455</v>
       </c>
       <c r="L44" s="19">
-        <v>3448455</v>
+        <v>4249640</v>
       </c>
       <c r="M44" s="19">
-        <v>4249640</v>
+        <v>4395282</v>
       </c>
       <c r="N44" s="19">
-        <v>4395282</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5671589</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2186,7 +2186,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2201,7 +2201,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2216,7 +2216,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>47</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2268,7 +2268,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
@@ -2285,7 +2285,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2294,37 +2294,37 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>45712739</v>
+        <v>61990827</v>
       </c>
       <c r="F51" s="11">
-        <v>61990827</v>
+        <v>85763544</v>
       </c>
       <c r="G51" s="11">
-        <v>85763544</v>
+        <v>107011447</v>
       </c>
       <c r="H51" s="11">
-        <v>107011447</v>
+        <v>107068922</v>
       </c>
       <c r="I51" s="11">
-        <v>107068922</v>
+        <v>120165981</v>
       </c>
       <c r="J51" s="11">
-        <v>120165981</v>
+        <v>146724429</v>
       </c>
       <c r="K51" s="11">
-        <v>146724429</v>
+        <v>196012294</v>
       </c>
       <c r="L51" s="11">
-        <v>196012294</v>
+        <v>256144796</v>
       </c>
       <c r="M51" s="11">
-        <v>256144796</v>
+        <v>148730461</v>
       </c>
       <c r="N51" s="11">
-        <v>148730461</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189038417</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
@@ -2333,37 +2333,37 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>2240579</v>
+        <v>2752821</v>
       </c>
       <c r="F52" s="13">
-        <v>2752821</v>
+        <v>4467207</v>
       </c>
       <c r="G52" s="13">
-        <v>4467207</v>
+        <v>4594090</v>
       </c>
       <c r="H52" s="13">
-        <v>4594090</v>
+        <v>5371693</v>
       </c>
       <c r="I52" s="13">
-        <v>5371693</v>
+        <v>7255316</v>
       </c>
       <c r="J52" s="13">
-        <v>7255316</v>
+        <v>8653471</v>
       </c>
       <c r="K52" s="13">
-        <v>8653471</v>
+        <v>14843732</v>
       </c>
       <c r="L52" s="13">
-        <v>14843732</v>
+        <v>11221812</v>
       </c>
       <c r="M52" s="13">
-        <v>11221812</v>
+        <v>12457815</v>
       </c>
       <c r="N52" s="13">
-        <v>12457815</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9861635</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>19</v>
       </c>
@@ -2372,37 +2372,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>18226666</v>
+        <v>18794310</v>
       </c>
       <c r="F53" s="11">
-        <v>18794310</v>
+        <v>27341855</v>
       </c>
       <c r="G53" s="11">
-        <v>27341855</v>
+        <v>29713423</v>
       </c>
       <c r="H53" s="11">
-        <v>29713423</v>
+        <v>27030038</v>
       </c>
       <c r="I53" s="11">
-        <v>27030038</v>
+        <v>30394656</v>
       </c>
       <c r="J53" s="11">
-        <v>30394656</v>
+        <v>39768689</v>
       </c>
       <c r="K53" s="11">
-        <v>39768689</v>
+        <v>42827482</v>
       </c>
       <c r="L53" s="11">
-        <v>42827482</v>
+        <v>37745872</v>
       </c>
       <c r="M53" s="11">
-        <v>37745872</v>
+        <v>51054246</v>
       </c>
       <c r="N53" s="11">
-        <v>51054246</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56917631</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>20</v>
       </c>
@@ -2411,37 +2411,37 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>406145</v>
+        <v>5194154</v>
       </c>
       <c r="F54" s="13">
-        <v>5194154</v>
+        <v>19391122</v>
       </c>
       <c r="G54" s="13">
-        <v>19391122</v>
+        <v>14900385</v>
       </c>
       <c r="H54" s="13">
-        <v>14900385</v>
+        <v>-69585612</v>
       </c>
       <c r="I54" s="13">
-        <v>-69585612</v>
+        <v>4195477</v>
       </c>
       <c r="J54" s="13">
-        <v>4195477</v>
+        <v>42198911</v>
       </c>
       <c r="K54" s="13">
-        <v>42198911</v>
+        <v>14024367</v>
       </c>
       <c r="L54" s="13">
-        <v>14024367</v>
+        <v>22866172</v>
       </c>
       <c r="M54" s="13">
-        <v>22866172</v>
+        <v>40415390</v>
       </c>
       <c r="N54" s="13">
-        <v>40415390</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41739427</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>21</v>
       </c>
@@ -2450,37 +2450,37 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>8291840</v>
+        <v>15458974</v>
       </c>
       <c r="F55" s="11">
-        <v>15458974</v>
+        <v>15324105</v>
       </c>
       <c r="G55" s="11">
-        <v>15324105</v>
+        <v>6706231</v>
       </c>
       <c r="H55" s="11">
-        <v>6706231</v>
+        <v>10523024</v>
       </c>
       <c r="I55" s="11">
-        <v>10523024</v>
+        <v>20428762</v>
       </c>
       <c r="J55" s="11">
-        <v>20428762</v>
+        <v>31953701</v>
       </c>
       <c r="K55" s="11">
-        <v>31953701</v>
+        <v>11159707</v>
       </c>
       <c r="L55" s="11">
-        <v>11159707</v>
+        <v>10600164</v>
       </c>
       <c r="M55" s="11">
-        <v>10600164</v>
+        <v>20620335</v>
       </c>
       <c r="N55" s="11">
-        <v>20620335</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42942874</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>22</v>
       </c>
@@ -2489,37 +2489,37 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>2958574</v>
+        <v>2493565</v>
       </c>
       <c r="F56" s="13">
-        <v>2493565</v>
+        <v>3863095</v>
       </c>
       <c r="G56" s="13">
-        <v>3863095</v>
+        <v>4378600</v>
       </c>
       <c r="H56" s="13">
-        <v>4378600</v>
+        <v>5992803</v>
       </c>
       <c r="I56" s="13">
-        <v>5992803</v>
+        <v>8204584</v>
       </c>
       <c r="J56" s="13">
-        <v>8204584</v>
+        <v>10169802</v>
       </c>
       <c r="K56" s="13">
-        <v>10169802</v>
+        <v>9852383</v>
       </c>
       <c r="L56" s="13">
-        <v>9852383</v>
+        <v>9068200</v>
       </c>
       <c r="M56" s="13">
-        <v>9068200</v>
+        <v>8686088</v>
       </c>
       <c r="N56" s="13">
-        <v>8686088</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8181908</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>23</v>
       </c>
@@ -2528,37 +2528,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>192341</v>
+        <v>93653</v>
       </c>
       <c r="F57" s="11">
-        <v>93653</v>
+        <v>579495</v>
       </c>
       <c r="G57" s="11">
-        <v>579495</v>
+        <v>610621</v>
       </c>
       <c r="H57" s="11">
-        <v>610621</v>
+        <v>553657</v>
       </c>
       <c r="I57" s="11">
-        <v>553657</v>
+        <v>831926</v>
       </c>
       <c r="J57" s="11">
-        <v>831926</v>
+        <v>597577</v>
       </c>
       <c r="K57" s="11">
-        <v>597577</v>
+        <v>771277</v>
       </c>
       <c r="L57" s="11">
-        <v>771277</v>
+        <v>400748</v>
       </c>
       <c r="M57" s="11">
-        <v>400748</v>
+        <v>710317</v>
       </c>
       <c r="N57" s="11">
-        <v>710317</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>715842</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>24</v>
       </c>
@@ -2567,37 +2567,37 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>75924973</v>
+        <v>85697015</v>
       </c>
       <c r="F58" s="13">
-        <v>85697015</v>
+        <v>132562510</v>
       </c>
       <c r="G58" s="13">
-        <v>132562510</v>
+        <v>141186741</v>
       </c>
       <c r="H58" s="13">
-        <v>141186741</v>
+        <v>164592245</v>
       </c>
       <c r="I58" s="13">
-        <v>164592245</v>
+        <v>187074995</v>
       </c>
       <c r="J58" s="13">
-        <v>187074995</v>
+        <v>245536868</v>
       </c>
       <c r="K58" s="13">
-        <v>245536868</v>
+        <v>338847132</v>
       </c>
       <c r="L58" s="13">
-        <v>338847132</v>
+        <v>391884381</v>
       </c>
       <c r="M58" s="13">
-        <v>391884381</v>
+        <v>358837380</v>
       </c>
       <c r="N58" s="13">
-        <v>358837380</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>286913263</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>25</v>
       </c>
@@ -2606,37 +2606,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>309473</v>
+        <v>779561</v>
       </c>
       <c r="F59" s="11">
-        <v>779561</v>
+        <v>1335039</v>
       </c>
       <c r="G59" s="11">
-        <v>1335039</v>
+        <v>915619</v>
       </c>
       <c r="H59" s="11">
-        <v>915619</v>
+        <v>1145917</v>
       </c>
       <c r="I59" s="11">
-        <v>1145917</v>
+        <v>1676616</v>
       </c>
       <c r="J59" s="11">
-        <v>1676616</v>
+        <v>1395705</v>
       </c>
       <c r="K59" s="11">
-        <v>1395705</v>
+        <v>1484983</v>
       </c>
       <c r="L59" s="11">
-        <v>1484983</v>
+        <v>1833311</v>
       </c>
       <c r="M59" s="11">
-        <v>1833311</v>
+        <v>677954</v>
       </c>
       <c r="N59" s="11">
-        <v>677954</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2082906</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>26</v>
       </c>
@@ -2659,23 +2659,23 @@
       <c r="I60" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J60" s="13" t="s">
-        <v>27</v>
+      <c r="J60" s="13">
+        <v>0</v>
       </c>
       <c r="K60" s="13">
         <v>0</v>
       </c>
       <c r="L60" s="13">
-        <v>0</v>
+        <v>12896193</v>
       </c>
       <c r="M60" s="13">
-        <v>12896193</v>
+        <v>1458094</v>
       </c>
       <c r="N60" s="13">
-        <v>1458094</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2174601</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>28</v>
       </c>
@@ -2684,37 +2684,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>1542</v>
+        <v>2362</v>
       </c>
       <c r="F61" s="11">
-        <v>2362</v>
+        <v>6556</v>
       </c>
       <c r="G61" s="11">
-        <v>6556</v>
+        <v>3375</v>
       </c>
       <c r="H61" s="11">
-        <v>3375</v>
+        <v>3571</v>
       </c>
       <c r="I61" s="11">
-        <v>3571</v>
+        <v>4688</v>
       </c>
       <c r="J61" s="11">
-        <v>4688</v>
+        <v>7497</v>
       </c>
       <c r="K61" s="11">
-        <v>7497</v>
+        <v>4934</v>
       </c>
       <c r="L61" s="11">
-        <v>4934</v>
+        <v>4942</v>
       </c>
       <c r="M61" s="11">
-        <v>4942</v>
+        <v>4452</v>
       </c>
       <c r="N61" s="11">
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>29</v>
       </c>
@@ -2737,11 +2737,11 @@
       <c r="I62" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K62" s="13">
-        <v>0</v>
+      <c r="J62" s="13">
+        <v>0</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L62" s="13" t="s">
         <v>27</v>
@@ -2753,7 +2753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>30</v>
       </c>
@@ -2776,11 +2776,11 @@
       <c r="I63" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K63" s="11">
-        <v>0</v>
+      <c r="J63" s="11">
+        <v>0</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>27</v>
@@ -2792,7 +2792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>31</v>
       </c>
@@ -2801,37 +2801,37 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>1554605</v>
+        <v>2242415</v>
       </c>
       <c r="F64" s="13">
-        <v>2242415</v>
+        <v>1436430</v>
       </c>
       <c r="G64" s="13">
-        <v>1436430</v>
+        <v>650655</v>
       </c>
       <c r="H64" s="13">
-        <v>650655</v>
+        <v>1657827</v>
       </c>
       <c r="I64" s="13">
-        <v>1657827</v>
+        <v>2002621</v>
       </c>
       <c r="J64" s="13">
-        <v>2002621</v>
+        <v>884176</v>
       </c>
       <c r="K64" s="13">
-        <v>884176</v>
+        <v>470224</v>
       </c>
       <c r="L64" s="13">
-        <v>470224</v>
+        <v>602723</v>
       </c>
       <c r="M64" s="13">
-        <v>602723</v>
+        <v>0</v>
       </c>
       <c r="N64" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>724026</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>32</v>
       </c>
@@ -2840,37 +2840,37 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>246031</v>
+        <v>397102</v>
       </c>
       <c r="F65" s="11">
-        <v>397102</v>
+        <v>206591</v>
       </c>
       <c r="G65" s="11">
-        <v>206591</v>
+        <v>365961</v>
       </c>
       <c r="H65" s="11">
-        <v>365961</v>
+        <v>301553</v>
       </c>
       <c r="I65" s="11">
-        <v>301553</v>
+        <v>944978</v>
       </c>
       <c r="J65" s="11">
-        <v>944978</v>
+        <v>186447</v>
       </c>
       <c r="K65" s="11">
-        <v>186447</v>
+        <v>225472</v>
       </c>
       <c r="L65" s="11">
-        <v>225472</v>
+        <v>408151</v>
       </c>
       <c r="M65" s="11">
-        <v>408151</v>
+        <v>170669</v>
       </c>
       <c r="N65" s="11">
-        <v>170669</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86949</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>33</v>
       </c>
@@ -2879,29 +2879,29 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>3424515</v>
+        <v>1377081</v>
       </c>
       <c r="F66" s="13">
-        <v>1377081</v>
+        <v>340573</v>
       </c>
       <c r="G66" s="13">
-        <v>340573</v>
+        <v>27220</v>
       </c>
       <c r="H66" s="13">
-        <v>27220</v>
+        <v>2751827</v>
       </c>
       <c r="I66" s="13">
-        <v>2751827</v>
+        <v>2616173</v>
       </c>
       <c r="J66" s="13">
-        <v>2616173</v>
+        <v>1875219</v>
       </c>
       <c r="K66" s="13">
-        <v>1875219</v>
-      </c>
-      <c r="L66" s="13">
         <v>9046391</v>
       </c>
+      <c r="L66" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="M66" s="13" t="s">
         <v>27</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>34</v>
       </c>
@@ -2918,37 +2918,37 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>3000043</v>
+        <v>3105480</v>
       </c>
       <c r="F67" s="11">
-        <v>3105480</v>
+        <v>5466590</v>
       </c>
       <c r="G67" s="11">
-        <v>5466590</v>
+        <v>9970376</v>
       </c>
       <c r="H67" s="11">
-        <v>9970376</v>
+        <v>11919867</v>
       </c>
       <c r="I67" s="11">
-        <v>11919867</v>
+        <v>12013720</v>
       </c>
       <c r="J67" s="11">
-        <v>12013720</v>
+        <v>11471566</v>
       </c>
       <c r="K67" s="11">
-        <v>11471566</v>
+        <v>20417790</v>
       </c>
       <c r="L67" s="11">
-        <v>20417790</v>
+        <v>19075277</v>
       </c>
       <c r="M67" s="11">
-        <v>19075277</v>
+        <v>10692688</v>
       </c>
       <c r="N67" s="11">
-        <v>10692688</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11510048</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>35</v>
       </c>
@@ -2971,14 +2971,14 @@
       <c r="I68" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>27</v>
+      <c r="J68" s="13">
+        <v>0</v>
       </c>
       <c r="K68" s="13">
         <v>0</v>
       </c>
-      <c r="L68" s="13">
-        <v>0</v>
+      <c r="L68" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="M68" s="13" t="s">
         <v>27</v>
@@ -2987,7 +2987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>36</v>
       </c>
@@ -3010,14 +3010,14 @@
       <c r="I69" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J69" s="11" t="s">
-        <v>27</v>
+      <c r="J69" s="11">
+        <v>0</v>
       </c>
       <c r="K69" s="11">
         <v>0</v>
       </c>
-      <c r="L69" s="11">
-        <v>0</v>
+      <c r="L69" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>27</v>
@@ -3026,7 +3026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>37</v>
       </c>
@@ -3049,14 +3049,14 @@
       <c r="I70" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J70" s="13" t="s">
-        <v>27</v>
+      <c r="J70" s="13">
+        <v>0</v>
       </c>
       <c r="K70" s="13">
         <v>0</v>
       </c>
-      <c r="L70" s="13">
-        <v>0</v>
+      <c r="L70" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="M70" s="13" t="s">
         <v>27</v>
@@ -3065,44 +3065,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>162490066</v>
+        <v>200379320</v>
       </c>
       <c r="F71" s="15">
-        <v>200379320</v>
+        <v>298084712</v>
       </c>
       <c r="G71" s="15">
-        <v>298084712</v>
+        <v>321034744</v>
       </c>
       <c r="H71" s="15">
-        <v>321034744</v>
+        <v>269327332</v>
       </c>
       <c r="I71" s="15">
-        <v>269327332</v>
+        <v>397810493</v>
       </c>
       <c r="J71" s="15">
-        <v>397810493</v>
+        <v>541424058</v>
       </c>
       <c r="K71" s="15">
-        <v>541424058</v>
+        <v>659988168</v>
       </c>
       <c r="L71" s="15">
-        <v>659988168</v>
+        <v>774752742</v>
       </c>
       <c r="M71" s="15">
-        <v>774752742</v>
+        <v>654515889</v>
       </c>
       <c r="N71" s="15">
-        <v>654515889</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>652892056</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>50</v>
       </c>
@@ -3119,7 +3119,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -3128,37 +3128,37 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>6041829</v>
+        <v>5255473</v>
       </c>
       <c r="F73" s="11">
-        <v>5255473</v>
+        <v>14882922</v>
       </c>
       <c r="G73" s="11">
-        <v>14882922</v>
+        <v>8584436</v>
       </c>
       <c r="H73" s="11">
-        <v>8584436</v>
+        <v>3947124</v>
       </c>
       <c r="I73" s="11">
-        <v>3947124</v>
+        <v>1649487</v>
       </c>
       <c r="J73" s="11">
-        <v>1649487</v>
-      </c>
-      <c r="K73" s="11">
         <v>-514416</v>
       </c>
+      <c r="K73" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L73" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M73" s="11" t="s">
-        <v>27</v>
+      <c r="M73" s="11">
+        <v>-2630218</v>
       </c>
       <c r="N73" s="11">
-        <v>-2630218</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-645548</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>20</v>
       </c>
@@ -3167,37 +3167,37 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>31862297</v>
+        <v>22277505</v>
       </c>
       <c r="F74" s="13">
-        <v>22277505</v>
+        <v>64608645</v>
       </c>
       <c r="G74" s="13">
-        <v>64608645</v>
+        <v>80351580</v>
       </c>
       <c r="H74" s="13">
-        <v>80351580</v>
+        <v>86995438</v>
       </c>
       <c r="I74" s="13">
-        <v>86995438</v>
+        <v>60180881</v>
       </c>
       <c r="J74" s="13">
-        <v>60180881</v>
-      </c>
-      <c r="K74" s="13">
         <v>104616086</v>
       </c>
+      <c r="K74" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="L74" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M74" s="13" t="s">
-        <v>27</v>
+      <c r="M74" s="13">
+        <v>-13001200</v>
       </c>
       <c r="N74" s="13">
-        <v>-13001200</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119128480</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>21</v>
       </c>
@@ -3229,14 +3229,14 @@
       <c r="L75" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M75" s="11" t="s">
-        <v>27</v>
+      <c r="M75" s="11">
+        <v>9720425</v>
       </c>
       <c r="N75" s="11">
-        <v>9720425</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2332784</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>22</v>
       </c>
@@ -3256,14 +3256,14 @@
       <c r="H76" s="13">
         <v>0</v>
       </c>
-      <c r="I76" s="13">
-        <v>0</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K76" s="13">
-        <v>0</v>
+      <c r="I76" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" s="13">
+        <v>0</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L76" s="13" t="s">
         <v>27</v>
@@ -3275,7 +3275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>24</v>
       </c>
@@ -3284,37 +3284,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>4215555</v>
+        <v>-929424</v>
       </c>
       <c r="F77" s="11">
-        <v>-929424</v>
+        <v>-267885</v>
       </c>
       <c r="G77" s="11">
-        <v>-267885</v>
+        <v>2015104</v>
       </c>
       <c r="H77" s="11">
-        <v>2015104</v>
+        <v>88525</v>
       </c>
       <c r="I77" s="11">
-        <v>88525</v>
+        <v>3444012</v>
       </c>
       <c r="J77" s="11">
-        <v>3444012</v>
-      </c>
-      <c r="K77" s="11">
         <v>4404632</v>
       </c>
+      <c r="K77" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L77" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M77" s="11" t="s">
-        <v>27</v>
+      <c r="M77" s="11">
+        <v>14570609</v>
       </c>
       <c r="N77" s="11">
-        <v>14570609</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-39028</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>33</v>
       </c>
@@ -3334,14 +3334,14 @@
       <c r="H78" s="13">
         <v>0</v>
       </c>
-      <c r="I78" s="13">
-        <v>0</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K78" s="13">
-        <v>0</v>
+      <c r="I78" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>27</v>
@@ -3353,44 +3353,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>42119681</v>
+        <v>26603554</v>
       </c>
       <c r="F79" s="15">
-        <v>26603554</v>
+        <v>79223682</v>
       </c>
       <c r="G79" s="15">
-        <v>79223682</v>
+        <v>90951120</v>
       </c>
       <c r="H79" s="15">
-        <v>90951120</v>
+        <v>91031087</v>
       </c>
       <c r="I79" s="15">
-        <v>91031087</v>
+        <v>65274380</v>
       </c>
       <c r="J79" s="15">
-        <v>65274380</v>
+        <v>108506302</v>
       </c>
       <c r="K79" s="15">
-        <v>108506302</v>
+        <v>0</v>
       </c>
       <c r="L79" s="15">
         <v>0</v>
       </c>
       <c r="M79" s="15">
-        <v>0</v>
+        <v>8659616</v>
       </c>
       <c r="N79" s="15">
-        <v>8659616</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>120776688</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="16" t="s">
         <v>51</v>
       </c>
@@ -3407,7 +3407,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>42</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="18" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3458,8 @@
       <c r="F82" s="19">
         <v>0</v>
       </c>
-      <c r="G82" s="19">
-        <v>0</v>
+      <c r="G82" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="H82" s="19" t="s">
         <v>27</v>
@@ -3483,7 +3483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>45</v>
       </c>
@@ -3503,11 +3503,11 @@
       <c r="H83" s="15">
         <v>0</v>
       </c>
-      <c r="I83" s="15">
-        <v>0</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>27</v>
+      <c r="I83" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" s="15">
+        <v>0</v>
       </c>
       <c r="K83" s="15">
         <v>0</v>
@@ -3522,44 +3522,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19">
-        <v>204609747</v>
+        <v>226982874</v>
       </c>
       <c r="F84" s="19">
-        <v>226982874</v>
+        <v>377308394</v>
       </c>
       <c r="G84" s="19">
-        <v>377308394</v>
+        <v>411985864</v>
       </c>
       <c r="H84" s="19">
-        <v>411985864</v>
+        <v>360358419</v>
       </c>
       <c r="I84" s="19">
-        <v>360358419</v>
+        <v>463084873</v>
       </c>
       <c r="J84" s="19">
-        <v>463084873</v>
+        <v>649930360</v>
       </c>
       <c r="K84" s="19">
-        <v>649930360</v>
+        <v>659988168</v>
       </c>
       <c r="L84" s="19">
-        <v>659988168</v>
+        <v>774752742</v>
       </c>
       <c r="M84" s="19">
-        <v>774752742</v>
+        <v>663175505</v>
       </c>
       <c r="N84" s="19">
-        <v>663175505</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>773668744</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3574,7 +3574,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3589,7 +3589,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3604,7 +3604,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
         <v>52</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3656,7 +3656,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>53</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>16</v>
       </c>
@@ -3682,37 +3682,37 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>40307716</v>
+        <v>64386989</v>
       </c>
       <c r="F91" s="11">
-        <v>64386989</v>
+        <v>83877147</v>
       </c>
       <c r="G91" s="11">
-        <v>83877147</v>
+        <v>94197564</v>
       </c>
       <c r="H91" s="11">
-        <v>94197564</v>
+        <v>105822743</v>
       </c>
       <c r="I91" s="11">
-        <v>105822743</v>
+        <v>132560376</v>
       </c>
       <c r="J91" s="11">
-        <v>132560376</v>
+        <v>152498637</v>
       </c>
       <c r="K91" s="11">
-        <v>152498637</v>
+        <v>188576714</v>
       </c>
       <c r="L91" s="11">
-        <v>188576714</v>
+        <v>178493265</v>
       </c>
       <c r="M91" s="11">
-        <v>178493265</v>
+        <v>139903528</v>
       </c>
       <c r="N91" s="11">
-        <v>139903528</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>158391154</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>18</v>
       </c>
@@ -3721,37 +3721,37 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>44001944</v>
+        <v>57216931</v>
       </c>
       <c r="F92" s="13">
-        <v>57216931</v>
+        <v>83810942</v>
       </c>
       <c r="G92" s="13">
-        <v>83810942</v>
+        <v>94770402</v>
       </c>
       <c r="H92" s="13">
-        <v>94770402</v>
+        <v>106225019</v>
       </c>
       <c r="I92" s="13">
-        <v>106225019</v>
+        <v>128380861</v>
       </c>
       <c r="J92" s="13">
-        <v>128380861</v>
+        <v>133241016</v>
       </c>
       <c r="K92" s="13">
-        <v>133241016</v>
+        <v>218367247</v>
       </c>
       <c r="L92" s="13">
-        <v>218367247</v>
+        <v>228471039</v>
       </c>
       <c r="M92" s="13">
-        <v>228471039</v>
+        <v>198924009</v>
       </c>
       <c r="N92" s="13">
-        <v>198924009</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>191506651</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>19</v>
       </c>
@@ -3760,37 +3760,37 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>31747081</v>
+        <v>45265570</v>
       </c>
       <c r="F93" s="11">
-        <v>45265570</v>
+        <v>66814562</v>
       </c>
       <c r="G93" s="11">
-        <v>66814562</v>
+        <v>69071588</v>
       </c>
       <c r="H93" s="11">
-        <v>69071588</v>
+        <v>65480060</v>
       </c>
       <c r="I93" s="11">
-        <v>65480060</v>
+        <v>91181871</v>
       </c>
       <c r="J93" s="11">
-        <v>91181871</v>
+        <v>97982362</v>
       </c>
       <c r="K93" s="11">
-        <v>97982362</v>
+        <v>107002631</v>
       </c>
       <c r="L93" s="11">
-        <v>107002631</v>
+        <v>91207752</v>
       </c>
       <c r="M93" s="11">
-        <v>91207752</v>
+        <v>103343655</v>
       </c>
       <c r="N93" s="11">
-        <v>103343655</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111497603</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>20</v>
       </c>
@@ -3799,37 +3799,37 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>-45798940</v>
+        <v>45445155</v>
       </c>
       <c r="F94" s="13">
-        <v>45445155</v>
+        <v>73211618</v>
       </c>
       <c r="G94" s="13">
-        <v>73211618</v>
+        <v>76376980</v>
       </c>
       <c r="H94" s="13">
-        <v>76376980</v>
+        <v>87826663</v>
       </c>
       <c r="I94" s="13">
-        <v>87826663</v>
+        <v>287874091</v>
       </c>
       <c r="J94" s="13">
-        <v>287874091</v>
+        <v>112085078</v>
       </c>
       <c r="K94" s="13">
-        <v>112085078</v>
+        <v>151844597</v>
       </c>
       <c r="L94" s="13">
-        <v>151844597</v>
+        <v>120690017</v>
       </c>
       <c r="M94" s="13">
-        <v>120690017</v>
+        <v>88890871</v>
       </c>
       <c r="N94" s="13">
-        <v>88890871</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>104293553</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>21</v>
       </c>
@@ -3838,37 +3838,37 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>43630930</v>
+        <v>55909288</v>
       </c>
       <c r="F95" s="11">
-        <v>55909288</v>
+        <v>72147727</v>
       </c>
       <c r="G95" s="11">
-        <v>72147727</v>
+        <v>91722940</v>
       </c>
       <c r="H95" s="11">
-        <v>91722940</v>
+        <v>120791855</v>
       </c>
       <c r="I95" s="11">
-        <v>120791855</v>
+        <v>114756721</v>
       </c>
       <c r="J95" s="11">
-        <v>114756721</v>
+        <v>151338210</v>
       </c>
       <c r="K95" s="11">
-        <v>151338210</v>
+        <v>217161396</v>
       </c>
       <c r="L95" s="11">
-        <v>217161396</v>
+        <v>210345755</v>
       </c>
       <c r="M95" s="11">
-        <v>210345755</v>
+        <v>200684526</v>
       </c>
       <c r="N95" s="11">
-        <v>200684526</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>190664012</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>22</v>
       </c>
@@ -3877,37 +3877,37 @@
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13">
-        <v>35832837</v>
+        <v>39289777</v>
       </c>
       <c r="F96" s="13">
-        <v>39289777</v>
+        <v>49188217</v>
       </c>
       <c r="G96" s="13">
-        <v>49188217</v>
+        <v>61127166</v>
       </c>
       <c r="H96" s="13">
-        <v>61127166</v>
+        <v>83120239</v>
       </c>
       <c r="I96" s="13">
-        <v>83120239</v>
+        <v>100537748</v>
       </c>
       <c r="J96" s="13">
-        <v>100537748</v>
+        <v>108205499</v>
       </c>
       <c r="K96" s="13">
-        <v>108205499</v>
+        <v>111916929</v>
       </c>
       <c r="L96" s="13">
-        <v>111916929</v>
+        <v>94806064</v>
       </c>
       <c r="M96" s="13">
-        <v>94806064</v>
+        <v>90413215</v>
       </c>
       <c r="N96" s="13">
-        <v>90413215</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>103487238</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>23</v>
       </c>
@@ -3916,37 +3916,37 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>15027815</v>
+        <v>35023560</v>
       </c>
       <c r="F97" s="11">
-        <v>35023560</v>
+        <v>44041268</v>
       </c>
       <c r="G97" s="11">
-        <v>44041268</v>
+        <v>61542129</v>
       </c>
       <c r="H97" s="11">
-        <v>61542129</v>
+        <v>62744447</v>
       </c>
       <c r="I97" s="11">
-        <v>62744447</v>
+        <v>83192600</v>
       </c>
       <c r="J97" s="11">
-        <v>83192600</v>
+        <v>125805684</v>
       </c>
       <c r="K97" s="11">
-        <v>125805684</v>
+        <v>181476941</v>
       </c>
       <c r="L97" s="11">
-        <v>181476941</v>
+        <v>63459699</v>
       </c>
       <c r="M97" s="11">
-        <v>63459699</v>
+        <v>51904786</v>
       </c>
       <c r="N97" s="11">
-        <v>51904786</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84664932</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>24</v>
       </c>
@@ -3955,37 +3955,37 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>49913829</v>
+        <v>73361687</v>
       </c>
       <c r="F98" s="13">
-        <v>73361687</v>
+        <v>90371617</v>
       </c>
       <c r="G98" s="13">
-        <v>90371617</v>
+        <v>91786926</v>
       </c>
       <c r="H98" s="13">
-        <v>91786926</v>
+        <v>105058839</v>
       </c>
       <c r="I98" s="13">
-        <v>105058839</v>
+        <v>127645097</v>
       </c>
       <c r="J98" s="13">
-        <v>127645097</v>
+        <v>160439983</v>
       </c>
       <c r="K98" s="13">
-        <v>160439983</v>
+        <v>227474333</v>
       </c>
       <c r="L98" s="13">
-        <v>227474333</v>
+        <v>222646400</v>
       </c>
       <c r="M98" s="13">
-        <v>222646400</v>
+        <v>203390843</v>
       </c>
       <c r="N98" s="13">
-        <v>203390843</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>180167124</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>25</v>
       </c>
@@ -3994,37 +3994,37 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>37874556</v>
+        <v>65235230</v>
       </c>
       <c r="F99" s="11">
-        <v>65235230</v>
+        <v>95770373</v>
       </c>
       <c r="G99" s="11">
-        <v>95770373</v>
+        <v>100551175</v>
       </c>
       <c r="H99" s="11">
-        <v>100551175</v>
+        <v>104688197</v>
       </c>
       <c r="I99" s="11">
-        <v>104688197</v>
+        <v>127074125</v>
       </c>
       <c r="J99" s="11">
-        <v>127074125</v>
+        <v>129423683</v>
       </c>
       <c r="K99" s="11">
-        <v>129423683</v>
+        <v>187426859</v>
       </c>
       <c r="L99" s="11">
-        <v>187426859</v>
+        <v>173658331</v>
       </c>
       <c r="M99" s="11">
-        <v>173658331</v>
+        <v>144153519</v>
       </c>
       <c r="N99" s="11">
-        <v>144153519</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>144075949</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>26</v>
       </c>
@@ -4053,17 +4053,17 @@
       <c r="K100" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L100" s="13" t="s">
-        <v>27</v>
+      <c r="L100" s="13">
+        <v>128923253</v>
       </c>
       <c r="M100" s="13">
-        <v>128923253</v>
+        <v>335502531</v>
       </c>
       <c r="N100" s="13">
-        <v>335502531</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>134425481</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>28</v>
       </c>
@@ -4072,37 +4072,37 @@
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11">
-        <v>27535714</v>
+        <v>36906250</v>
       </c>
       <c r="F101" s="11">
-        <v>36906250</v>
+        <v>96411765</v>
       </c>
       <c r="G101" s="11">
-        <v>96411765</v>
+        <v>56250000</v>
       </c>
       <c r="H101" s="11">
-        <v>56250000</v>
+        <v>66129630</v>
       </c>
       <c r="I101" s="11">
-        <v>66129630</v>
+        <v>86814815</v>
       </c>
       <c r="J101" s="11">
-        <v>86814815</v>
+        <v>147000000</v>
       </c>
       <c r="K101" s="11">
-        <v>147000000</v>
+        <v>100693878</v>
       </c>
       <c r="L101" s="11">
-        <v>100693878</v>
+        <v>89854545</v>
       </c>
       <c r="M101" s="11">
-        <v>89854545</v>
+        <v>80945455</v>
       </c>
       <c r="N101" s="11">
-        <v>80945455</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>90321429</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>29</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>30</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>31</v>
       </c>
@@ -4189,37 +4189,37 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>43467217</v>
+        <v>61628511</v>
       </c>
       <c r="F104" s="13">
-        <v>61628511</v>
+        <v>83314773</v>
       </c>
       <c r="G104" s="13">
-        <v>83314773</v>
+        <v>88645095</v>
       </c>
       <c r="H104" s="13">
-        <v>88645095</v>
+        <v>97812673</v>
       </c>
       <c r="I104" s="13">
-        <v>97812673</v>
+        <v>113843500</v>
       </c>
       <c r="J104" s="13">
-        <v>113843500</v>
+        <v>134885736</v>
       </c>
       <c r="K104" s="13">
-        <v>134885736</v>
+        <v>157634596</v>
       </c>
       <c r="L104" s="13">
-        <v>157634596</v>
-      </c>
-      <c r="M104" s="13">
         <v>211481754</v>
       </c>
-      <c r="N104" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M104" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N104" s="13">
+        <v>184653405</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>32</v>
       </c>
@@ -4228,37 +4228,37 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>25713942</v>
+        <v>41205977</v>
       </c>
       <c r="F105" s="11">
-        <v>41205977</v>
+        <v>64118870</v>
       </c>
       <c r="G105" s="11">
-        <v>64118870</v>
+        <v>66022190</v>
       </c>
       <c r="H105" s="11">
-        <v>66022190</v>
+        <v>75125311</v>
       </c>
       <c r="I105" s="11">
-        <v>75125311</v>
+        <v>88274451</v>
       </c>
       <c r="J105" s="11">
-        <v>88274451</v>
+        <v>88657632</v>
       </c>
       <c r="K105" s="11">
-        <v>88657632</v>
+        <v>98631671</v>
       </c>
       <c r="L105" s="11">
-        <v>98631671</v>
+        <v>118236095</v>
       </c>
       <c r="M105" s="11">
-        <v>118236095</v>
+        <v>92704508</v>
       </c>
       <c r="N105" s="11">
-        <v>92704508</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>78901089</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>33</v>
       </c>
@@ -4267,29 +4267,29 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
-        <v>33598052</v>
+        <v>51439281</v>
       </c>
       <c r="F106" s="13">
-        <v>51439281</v>
+        <v>83371603</v>
       </c>
       <c r="G106" s="13">
-        <v>83371603</v>
+        <v>88376623</v>
       </c>
       <c r="H106" s="13">
-        <v>88376623</v>
+        <v>91642034</v>
       </c>
       <c r="I106" s="13">
-        <v>91642034</v>
+        <v>102877428</v>
       </c>
       <c r="J106" s="13">
-        <v>102877428</v>
+        <v>125718624</v>
       </c>
       <c r="K106" s="13">
-        <v>125718624</v>
-      </c>
-      <c r="L106" s="13">
         <v>131253587</v>
       </c>
+      <c r="L106" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="M106" s="13" t="s">
         <v>27</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>34</v>
       </c>
@@ -4306,37 +4306,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>36071216</v>
+        <v>50792104</v>
       </c>
       <c r="F107" s="11">
-        <v>50792104</v>
+        <v>78950188</v>
       </c>
       <c r="G107" s="11">
-        <v>78950188</v>
+        <v>85937441</v>
       </c>
       <c r="H107" s="11">
-        <v>85937441</v>
+        <v>88660461</v>
       </c>
       <c r="I107" s="11">
-        <v>88660461</v>
+        <v>97920905</v>
       </c>
       <c r="J107" s="11">
-        <v>97920905</v>
+        <v>106630905</v>
       </c>
       <c r="K107" s="11">
-        <v>106630905</v>
+        <v>153517218</v>
       </c>
       <c r="L107" s="11">
-        <v>153517218</v>
+        <v>143688906</v>
       </c>
       <c r="M107" s="11">
-        <v>143688906</v>
+        <v>106266962</v>
       </c>
       <c r="N107" s="11">
-        <v>106266962</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101930093</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>35</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>36</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>37</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>55</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>16</v>
       </c>
@@ -4479,37 +4479,37 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>37475214</v>
+        <v>55661770</v>
       </c>
       <c r="F112" s="11">
-        <v>55661770</v>
+        <v>90226322</v>
       </c>
       <c r="G112" s="11">
-        <v>90226322</v>
+        <v>97557061</v>
       </c>
       <c r="H112" s="11">
-        <v>97557061</v>
+        <v>103227868</v>
       </c>
       <c r="I112" s="11">
-        <v>103227868</v>
+        <v>170173011</v>
       </c>
       <c r="J112" s="11">
-        <v>170173011</v>
-      </c>
-      <c r="K112" s="11">
         <v>87085830</v>
       </c>
+      <c r="K112" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L112" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M112" s="11" t="s">
-        <v>27</v>
+      <c r="M112" s="11">
+        <v>200535072</v>
       </c>
       <c r="N112" s="11">
-        <v>200535072</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>142128578</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>20</v>
       </c>
@@ -4518,37 +4518,37 @@
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13">
-        <v>33303193</v>
+        <v>55586619</v>
       </c>
       <c r="F113" s="13">
-        <v>55586619</v>
+        <v>83331371</v>
       </c>
       <c r="G113" s="13">
-        <v>83331371</v>
+        <v>76741433</v>
       </c>
       <c r="H113" s="13">
-        <v>76741433</v>
+        <v>87592292</v>
       </c>
       <c r="I113" s="13">
-        <v>87592292</v>
+        <v>95914193</v>
       </c>
       <c r="J113" s="13">
-        <v>95914193</v>
-      </c>
-      <c r="K113" s="13">
         <v>104798645</v>
       </c>
+      <c r="K113" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="L113" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M113" s="13" t="s">
-        <v>27</v>
+      <c r="M113" s="13">
+        <v>-119382208</v>
       </c>
       <c r="N113" s="13">
-        <v>-119382208</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83118015</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>21</v>
       </c>
@@ -4580,14 +4580,14 @@
       <c r="L114" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M114" s="11" t="s">
-        <v>27</v>
+      <c r="M114" s="11">
+        <v>182276196</v>
       </c>
       <c r="N114" s="11">
-        <v>182276196</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>87507840</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>22</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>24</v>
       </c>
@@ -4635,37 +4635,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>33778486</v>
+        <v>22718748</v>
       </c>
       <c r="F116" s="11">
-        <v>22718748</v>
+        <v>18056417</v>
       </c>
       <c r="G116" s="11">
-        <v>18056417</v>
+        <v>92465654</v>
       </c>
       <c r="H116" s="11">
-        <v>92465654</v>
+        <v>206351981</v>
       </c>
       <c r="I116" s="11">
-        <v>206351981</v>
+        <v>112774223</v>
       </c>
       <c r="J116" s="11">
-        <v>112774223</v>
-      </c>
-      <c r="K116" s="11">
         <v>191964785</v>
       </c>
+      <c r="K116" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L116" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M116" s="11" t="s">
-        <v>27</v>
+      <c r="M116" s="11">
+        <v>174680314</v>
       </c>
       <c r="N116" s="11">
-        <v>174680314</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5813794</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>33</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4719,7 +4719,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4734,7 +4734,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4749,7 +4749,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>56</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4801,7 +4801,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>57</v>
       </c>
@@ -4818,7 +4818,7 @@
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>16</v>
       </c>
@@ -4827,37 +4827,37 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>-43204675</v>
+        <v>-49763174</v>
       </c>
       <c r="F124" s="11">
-        <v>-49763174</v>
+        <v>-73225255</v>
       </c>
       <c r="G124" s="11">
-        <v>-73225255</v>
+        <v>-94480414</v>
       </c>
       <c r="H124" s="11">
-        <v>-94480414</v>
+        <v>-109318686</v>
       </c>
       <c r="I124" s="11">
-        <v>-109318686</v>
+        <v>-108175531</v>
       </c>
       <c r="J124" s="11">
-        <v>-108175531</v>
+        <v>-126133434</v>
       </c>
       <c r="K124" s="11">
-        <v>-126133434</v>
+        <v>-156821469</v>
       </c>
       <c r="L124" s="11">
-        <v>-156821469</v>
+        <v>-220131316</v>
       </c>
       <c r="M124" s="11">
-        <v>-220131316</v>
+        <v>-138288442</v>
       </c>
       <c r="N124" s="11">
-        <v>-138288442</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-159633056</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>18</v>
       </c>
@@ -4866,37 +4866,37 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
-        <v>-1954235</v>
+        <v>-2409721</v>
       </c>
       <c r="F125" s="13">
-        <v>-2409721</v>
+        <v>-3417181</v>
       </c>
       <c r="G125" s="13">
-        <v>-3417181</v>
+        <v>-3321019</v>
       </c>
       <c r="H125" s="13">
-        <v>-3321019</v>
+        <v>-4387772</v>
       </c>
       <c r="I125" s="13">
-        <v>-4387772</v>
+        <v>-6294710</v>
       </c>
       <c r="J125" s="13">
-        <v>-6294710</v>
+        <v>-8487195</v>
       </c>
       <c r="K125" s="13">
-        <v>-8487195</v>
+        <v>-9524071</v>
       </c>
       <c r="L125" s="13">
-        <v>-9524071</v>
+        <v>-9236843</v>
       </c>
       <c r="M125" s="13">
-        <v>-9236843</v>
+        <v>-10991635</v>
       </c>
       <c r="N125" s="13">
-        <v>-10991635</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-8977894</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>19</v>
       </c>
@@ -4905,37 +4905,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>-17277993</v>
+        <v>-15055214</v>
       </c>
       <c r="F126" s="11">
-        <v>-15055214</v>
+        <v>-24460130</v>
       </c>
       <c r="G126" s="11">
-        <v>-24460130</v>
+        <v>-26382202</v>
       </c>
       <c r="H126" s="11">
-        <v>-26382202</v>
+        <v>-24657286</v>
       </c>
       <c r="I126" s="11">
-        <v>-24657286</v>
+        <v>-26796226</v>
       </c>
       <c r="J126" s="11">
-        <v>-26796226</v>
+        <v>-33453256</v>
       </c>
       <c r="K126" s="11">
-        <v>-33453256</v>
+        <v>-35469419</v>
       </c>
       <c r="L126" s="11">
-        <v>-35469419</v>
+        <v>-34711389</v>
       </c>
       <c r="M126" s="11">
-        <v>-34711389</v>
+        <v>-46506947</v>
       </c>
       <c r="N126" s="11">
-        <v>-46506947</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-49216578</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>20</v>
       </c>
@@ -4944,37 +4944,37 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>769323</v>
+        <v>-4132801</v>
       </c>
       <c r="F127" s="13">
-        <v>-4132801</v>
+        <v>-15466490</v>
       </c>
       <c r="G127" s="13">
-        <v>-15466490</v>
+        <v>-12530630</v>
       </c>
       <c r="H127" s="13">
-        <v>-12530630</v>
+        <v>-9714866</v>
       </c>
       <c r="I127" s="13">
-        <v>-9714866</v>
+        <v>-3778997</v>
       </c>
       <c r="J127" s="13">
-        <v>-3778997</v>
+        <v>-36212911</v>
       </c>
       <c r="K127" s="13">
-        <v>-36212911</v>
+        <v>-10143294</v>
       </c>
       <c r="L127" s="13">
-        <v>-10143294</v>
+        <v>-21673651</v>
       </c>
       <c r="M127" s="13">
-        <v>-21673651</v>
+        <v>-39722341</v>
       </c>
       <c r="N127" s="13">
-        <v>-39722341</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-43706151</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>21</v>
       </c>
@@ -4983,37 +4983,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>-7739560</v>
+        <v>-12140726</v>
       </c>
       <c r="F128" s="11">
-        <v>-12140726</v>
+        <v>-12989008</v>
       </c>
       <c r="G128" s="11">
-        <v>-12989008</v>
+        <v>-4354567</v>
       </c>
       <c r="H128" s="11">
-        <v>-4354567</v>
+        <v>-6927642</v>
       </c>
       <c r="I128" s="11">
-        <v>-6927642</v>
+        <v>-15161097</v>
       </c>
       <c r="J128" s="11">
-        <v>-15161097</v>
+        <v>-20281153</v>
       </c>
       <c r="K128" s="11">
-        <v>-20281153</v>
+        <v>-6243892</v>
       </c>
       <c r="L128" s="11">
-        <v>-6243892</v>
+        <v>-8450746</v>
       </c>
       <c r="M128" s="11">
-        <v>-8450746</v>
+        <v>-16734838</v>
       </c>
       <c r="N128" s="11">
-        <v>-16734838</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-36274469</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>22</v>
       </c>
@@ -5022,37 +5022,37 @@
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13">
-        <v>-2315512</v>
+        <v>-1959522</v>
       </c>
       <c r="F129" s="13">
-        <v>-1959522</v>
+        <v>-3024379</v>
       </c>
       <c r="G129" s="13">
-        <v>-3024379</v>
+        <v>-3728749</v>
       </c>
       <c r="H129" s="13">
-        <v>-3728749</v>
+        <v>-5364241</v>
       </c>
       <c r="I129" s="13">
-        <v>-5364241</v>
+        <v>-6972913</v>
       </c>
       <c r="J129" s="13">
-        <v>-6972913</v>
+        <v>-8641864</v>
       </c>
       <c r="K129" s="13">
-        <v>-8641864</v>
+        <v>-7924021</v>
       </c>
       <c r="L129" s="13">
-        <v>-7924021</v>
+        <v>-8304055</v>
       </c>
       <c r="M129" s="13">
-        <v>-8304055</v>
+        <v>-8070601</v>
       </c>
       <c r="N129" s="13">
-        <v>-8070601</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-7008654</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>23</v>
       </c>
@@ -5061,37 +5061,37 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>-160325</v>
+        <v>-102713</v>
       </c>
       <c r="F130" s="11">
-        <v>-102713</v>
+        <v>-443150</v>
       </c>
       <c r="G130" s="11">
-        <v>-443150</v>
+        <v>-432541</v>
       </c>
       <c r="H130" s="11">
-        <v>-432541</v>
+        <v>-446532</v>
       </c>
       <c r="I130" s="11">
-        <v>-446532</v>
+        <v>-629080</v>
       </c>
       <c r="J130" s="11">
-        <v>-629080</v>
+        <v>-510409</v>
       </c>
       <c r="K130" s="11">
-        <v>-510409</v>
+        <v>-399173</v>
       </c>
       <c r="L130" s="11">
-        <v>-399173</v>
+        <v>-573936</v>
       </c>
       <c r="M130" s="11">
-        <v>-573936</v>
+        <v>-1106703</v>
       </c>
       <c r="N130" s="11">
-        <v>-1106703</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-545974</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="12" t="s">
         <v>24</v>
       </c>
@@ -5100,37 +5100,37 @@
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13">
-        <v>-68756800</v>
+        <v>-70850100</v>
       </c>
       <c r="F131" s="13">
-        <v>-70850100</v>
+        <v>-109431529</v>
       </c>
       <c r="G131" s="13">
-        <v>-109431529</v>
+        <v>-123616121</v>
       </c>
       <c r="H131" s="13">
-        <v>-123616121</v>
+        <v>-150777015</v>
       </c>
       <c r="I131" s="13">
-        <v>-150777015</v>
+        <v>-164131817</v>
       </c>
       <c r="J131" s="13">
-        <v>-164131817</v>
+        <v>-208689633</v>
       </c>
       <c r="K131" s="13">
-        <v>-208689633</v>
+        <v>-265325794</v>
       </c>
       <c r="L131" s="13">
-        <v>-265325794</v>
+        <v>-346487243</v>
       </c>
       <c r="M131" s="13">
-        <v>-346487243</v>
+        <v>-331309468</v>
       </c>
       <c r="N131" s="13">
-        <v>-331309468</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-248296268</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>25</v>
       </c>
@@ -5139,37 +5139,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>-281246</v>
+        <v>-632285</v>
       </c>
       <c r="F132" s="11">
-        <v>-632285</v>
+        <v>-1189493</v>
       </c>
       <c r="G132" s="11">
-        <v>-1189493</v>
+        <v>-831137</v>
       </c>
       <c r="H132" s="11">
-        <v>-831137</v>
+        <v>-1044638</v>
       </c>
       <c r="I132" s="11">
-        <v>-1044638</v>
+        <v>-1487642</v>
       </c>
       <c r="J132" s="11">
-        <v>-1487642</v>
+        <v>-1179161</v>
       </c>
       <c r="K132" s="11">
-        <v>-1179161</v>
+        <v>-1244113</v>
       </c>
       <c r="L132" s="11">
-        <v>-1244113</v>
+        <v>-1646150</v>
       </c>
       <c r="M132" s="11">
-        <v>-1646150</v>
+        <v>-653023</v>
       </c>
       <c r="N132" s="11">
-        <v>-653023</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1807905</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="12" t="s">
         <v>26</v>
       </c>
@@ -5192,23 +5192,23 @@
       <c r="I133" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J133" s="13" t="s">
-        <v>27</v>
+      <c r="J133" s="13">
+        <v>0</v>
       </c>
       <c r="K133" s="13">
         <v>0</v>
       </c>
       <c r="L133" s="13">
-        <v>0</v>
+        <v>-10877216</v>
       </c>
       <c r="M133" s="13">
-        <v>-10877216</v>
+        <v>-1488250</v>
       </c>
       <c r="N133" s="13">
-        <v>-1488250</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2177440</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>28</v>
       </c>
@@ -5217,37 +5217,37 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>-1446</v>
+        <v>-2054</v>
       </c>
       <c r="F134" s="11">
-        <v>-2054</v>
+        <v>-3994</v>
       </c>
       <c r="G134" s="11">
-        <v>-3994</v>
+        <v>-3060</v>
       </c>
       <c r="H134" s="11">
-        <v>-3060</v>
+        <v>-3293</v>
       </c>
       <c r="I134" s="11">
-        <v>-3293</v>
+        <v>-4207</v>
       </c>
       <c r="J134" s="11">
-        <v>-4207</v>
+        <v>-4117</v>
       </c>
       <c r="K134" s="11">
-        <v>-4117</v>
+        <v>-4132</v>
       </c>
       <c r="L134" s="11">
-        <v>-4132</v>
+        <v>-4474</v>
       </c>
       <c r="M134" s="11">
-        <v>-4474</v>
+        <v>-4076</v>
       </c>
       <c r="N134" s="11">
-        <v>-4076</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2106</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="12" t="s">
         <v>29</v>
       </c>
@@ -5270,11 +5270,11 @@
       <c r="I135" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J135" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K135" s="13">
-        <v>0</v>
+      <c r="J135" s="13">
+        <v>0</v>
+      </c>
+      <c r="K135" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L135" s="13" t="s">
         <v>27</v>
@@ -5286,7 +5286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>30</v>
       </c>
@@ -5309,11 +5309,11 @@
       <c r="I136" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J136" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K136" s="11">
-        <v>0</v>
+      <c r="J136" s="11">
+        <v>0</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="L136" s="11" t="s">
         <v>27</v>
@@ -5325,7 +5325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
         <v>31</v>
       </c>
@@ -5334,37 +5334,37 @@
       </c>
       <c r="D137" s="13"/>
       <c r="E137" s="13">
-        <v>-1496204</v>
+        <v>-1918352</v>
       </c>
       <c r="F137" s="13">
-        <v>-1918352</v>
+        <v>-1199298</v>
       </c>
       <c r="G137" s="13">
-        <v>-1199298</v>
+        <v>-590442</v>
       </c>
       <c r="H137" s="13">
-        <v>-590442</v>
+        <v>-1509647</v>
       </c>
       <c r="I137" s="13">
-        <v>-1509647</v>
+        <v>-1797889</v>
       </c>
       <c r="J137" s="13">
-        <v>-1797889</v>
+        <v>-716903</v>
       </c>
       <c r="K137" s="13">
-        <v>-716903</v>
+        <v>-394008</v>
       </c>
       <c r="L137" s="13">
-        <v>-394008</v>
+        <v>-540719</v>
       </c>
       <c r="M137" s="13">
-        <v>-540719</v>
+        <v>-16792</v>
       </c>
       <c r="N137" s="13">
-        <v>-16792</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-630488</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -5373,37 +5373,37 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>-221374</v>
+        <v>-251746</v>
       </c>
       <c r="F138" s="11">
-        <v>-251746</v>
+        <v>-176825</v>
       </c>
       <c r="G138" s="11">
-        <v>-176825</v>
+        <v>-332465</v>
       </c>
       <c r="H138" s="11">
-        <v>-332465</v>
+        <v>-275134</v>
       </c>
       <c r="I138" s="11">
-        <v>-275134</v>
+        <v>-853114</v>
       </c>
       <c r="J138" s="11">
-        <v>-853114</v>
+        <v>-139898</v>
       </c>
       <c r="K138" s="11">
-        <v>-139898</v>
+        <v>-212486</v>
       </c>
       <c r="L138" s="11">
-        <v>-212486</v>
+        <v>-341470</v>
       </c>
       <c r="M138" s="11">
-        <v>-341470</v>
+        <v>-161298</v>
       </c>
       <c r="N138" s="11">
-        <v>-161298</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23269</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="12" t="s">
         <v>33</v>
       </c>
@@ -5412,29 +5412,29 @@
       </c>
       <c r="D139" s="13"/>
       <c r="E139" s="13">
-        <v>-3280689</v>
+        <v>-1100877</v>
       </c>
       <c r="F139" s="13">
-        <v>-1100877</v>
+        <v>-33825</v>
       </c>
       <c r="G139" s="13">
-        <v>-33825</v>
+        <v>-24742</v>
       </c>
       <c r="H139" s="13">
-        <v>-24742</v>
+        <v>-2508746</v>
       </c>
       <c r="I139" s="13">
-        <v>-2508746</v>
+        <v>-2341634</v>
       </c>
       <c r="J139" s="13">
-        <v>-2341634</v>
+        <v>-1578071</v>
       </c>
       <c r="K139" s="13">
-        <v>-1578071</v>
-      </c>
-      <c r="L139" s="13">
         <v>-7600524</v>
       </c>
+      <c r="L139" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="M139" s="13" t="s">
         <v>27</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>34</v>
       </c>
@@ -5451,37 +5451,37 @@
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
-        <v>-2860579</v>
+        <v>-2461404</v>
       </c>
       <c r="F140" s="11">
-        <v>-2461404</v>
+        <v>-4751709</v>
       </c>
       <c r="G140" s="11">
-        <v>-4751709</v>
+        <v>-9049082</v>
       </c>
       <c r="H140" s="11">
-        <v>-9049082</v>
+        <v>-10866575</v>
       </c>
       <c r="I140" s="11">
-        <v>-10866575</v>
+        <v>-10616330</v>
       </c>
       <c r="J140" s="11">
-        <v>-10616330</v>
+        <v>-9641561</v>
       </c>
       <c r="K140" s="11">
-        <v>-9641561</v>
+        <v>-17104329</v>
       </c>
       <c r="L140" s="11">
-        <v>-17104329</v>
+        <v>-17310310</v>
       </c>
       <c r="M140" s="11">
-        <v>-17310310</v>
+        <v>-10099658</v>
       </c>
       <c r="N140" s="11">
-        <v>-10099658</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9809178</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="12" t="s">
         <v>35</v>
       </c>
@@ -5504,14 +5504,14 @@
       <c r="I141" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J141" s="13" t="s">
-        <v>27</v>
+      <c r="J141" s="13">
+        <v>0</v>
       </c>
       <c r="K141" s="13">
         <v>0</v>
       </c>
-      <c r="L141" s="13">
-        <v>0</v>
+      <c r="L141" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="M141" s="13" t="s">
         <v>27</v>
@@ -5520,7 +5520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>36</v>
       </c>
@@ -5543,14 +5543,14 @@
       <c r="I142" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J142" s="11" t="s">
-        <v>27</v>
+      <c r="J142" s="11">
+        <v>0</v>
       </c>
       <c r="K142" s="11">
         <v>0</v>
       </c>
-      <c r="L142" s="11">
-        <v>0</v>
+      <c r="L142" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="M142" s="11" t="s">
         <v>27</v>
@@ -5559,7 +5559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="12" t="s">
         <v>37</v>
       </c>
@@ -5582,14 +5582,14 @@
       <c r="I143" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J143" s="13" t="s">
-        <v>27</v>
+      <c r="J143" s="13">
+        <v>0</v>
       </c>
       <c r="K143" s="13">
         <v>0</v>
       </c>
-      <c r="L143" s="13">
-        <v>0</v>
+      <c r="L143" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="M143" s="13" t="s">
         <v>27</v>
@@ -5598,44 +5598,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15">
-        <v>-148781315</v>
+        <v>-162780689</v>
       </c>
       <c r="F144" s="15">
-        <v>-162780689</v>
+        <v>-249812266</v>
       </c>
       <c r="G144" s="15">
-        <v>-249812266</v>
+        <v>-279677171</v>
       </c>
       <c r="H144" s="15">
-        <v>-279677171</v>
+        <v>-327802073</v>
       </c>
       <c r="I144" s="15">
-        <v>-327802073</v>
+        <v>-349041187</v>
       </c>
       <c r="J144" s="15">
-        <v>-349041187</v>
+        <v>-455669566</v>
       </c>
       <c r="K144" s="15">
-        <v>-455669566</v>
+        <v>-518410725</v>
       </c>
       <c r="L144" s="15">
-        <v>-518410725</v>
+        <v>-680289518</v>
       </c>
       <c r="M144" s="15">
-        <v>-680289518</v>
+        <v>-605154072</v>
       </c>
       <c r="N144" s="15">
-        <v>-605154072</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-568062892</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>59</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>16</v>
       </c>
@@ -5661,37 +5661,37 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>-6103662</v>
+        <v>-4143569</v>
       </c>
       <c r="F146" s="11">
-        <v>-4143569</v>
+        <v>-12975700</v>
       </c>
       <c r="G146" s="11">
-        <v>-12975700</v>
+        <v>-7579199</v>
       </c>
       <c r="H146" s="11">
-        <v>-7579199</v>
+        <v>-3890600</v>
       </c>
       <c r="I146" s="11">
-        <v>-3890600</v>
+        <v>-1434896</v>
       </c>
       <c r="J146" s="11">
-        <v>-1434896</v>
-      </c>
-      <c r="K146" s="11">
         <v>674284</v>
       </c>
+      <c r="K146" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L146" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M146" s="11" t="s">
-        <v>27</v>
+      <c r="M146" s="11">
+        <v>1831267</v>
       </c>
       <c r="N146" s="11">
-        <v>1831267</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>598866</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="12" t="s">
         <v>20</v>
       </c>
@@ -5700,37 +5700,37 @@
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13">
-        <v>-28857374</v>
+        <v>-14615500</v>
       </c>
       <c r="F147" s="13">
-        <v>-14615500</v>
+        <v>-49960066</v>
       </c>
       <c r="G147" s="13">
-        <v>-49960066</v>
+        <v>-67572475</v>
       </c>
       <c r="H147" s="13">
-        <v>-67572475</v>
+        <v>-77470227</v>
       </c>
       <c r="I147" s="13">
-        <v>-77470227</v>
+        <v>-53247162</v>
       </c>
       <c r="J147" s="13">
-        <v>-53247162</v>
-      </c>
-      <c r="K147" s="13">
         <v>-88576185</v>
       </c>
+      <c r="K147" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="L147" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M147" s="13" t="s">
-        <v>27</v>
+      <c r="M147" s="13">
+        <v>-2773730</v>
       </c>
       <c r="N147" s="13">
-        <v>-2773730</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-124810020</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>21</v>
       </c>
@@ -5762,14 +5762,14 @@
       <c r="L148" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M148" s="11" t="s">
-        <v>27</v>
+      <c r="M148" s="11">
+        <v>-8416974</v>
       </c>
       <c r="N148" s="11">
-        <v>-8416974</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3301210</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="12" t="s">
         <v>22</v>
       </c>
@@ -5789,14 +5789,14 @@
       <c r="H149" s="13">
         <v>0</v>
       </c>
-      <c r="I149" s="13">
-        <v>0</v>
-      </c>
-      <c r="J149" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K149" s="13">
-        <v>0</v>
+      <c r="I149" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J149" s="13">
+        <v>0</v>
+      </c>
+      <c r="K149" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L149" s="13" t="s">
         <v>27</v>
@@ -5808,7 +5808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>24</v>
       </c>
@@ -5817,37 +5817,37 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>-3949623</v>
+        <v>1167838</v>
       </c>
       <c r="F150" s="11">
-        <v>1167838</v>
+        <v>379054</v>
       </c>
       <c r="G150" s="11">
-        <v>379054</v>
+        <v>-1764325</v>
       </c>
       <c r="H150" s="11">
-        <v>-1764325</v>
+        <v>-111024</v>
       </c>
       <c r="I150" s="11">
-        <v>-111024</v>
+        <v>-3040656</v>
       </c>
       <c r="J150" s="11">
-        <v>-3040656</v>
-      </c>
-      <c r="K150" s="11">
         <v>-3783623</v>
       </c>
+      <c r="K150" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L150" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M150" s="11" t="s">
-        <v>27</v>
+      <c r="M150" s="11">
+        <v>-13225060</v>
       </c>
       <c r="N150" s="11">
-        <v>-13225060</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35192</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="12" t="s">
         <v>33</v>
       </c>
@@ -5867,14 +5867,14 @@
       <c r="H151" s="13">
         <v>0</v>
       </c>
-      <c r="I151" s="13">
-        <v>0</v>
-      </c>
-      <c r="J151" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K151" s="13">
-        <v>0</v>
+      <c r="I151" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J151" s="13">
+        <v>0</v>
+      </c>
+      <c r="K151" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L151" s="13" t="s">
         <v>27</v>
@@ -5886,44 +5886,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15">
-        <v>-38910659</v>
+        <v>-17591231</v>
       </c>
       <c r="F152" s="15">
-        <v>-17591231</v>
+        <v>-62556712</v>
       </c>
       <c r="G152" s="15">
-        <v>-62556712</v>
+        <v>-76915999</v>
       </c>
       <c r="H152" s="15">
-        <v>-76915999</v>
+        <v>-81471851</v>
       </c>
       <c r="I152" s="15">
-        <v>-81471851</v>
+        <v>-57722714</v>
       </c>
       <c r="J152" s="15">
-        <v>-57722714</v>
+        <v>-91685524</v>
       </c>
       <c r="K152" s="15">
-        <v>-91685524</v>
+        <v>0</v>
       </c>
       <c r="L152" s="15">
         <v>0</v>
       </c>
       <c r="M152" s="15">
-        <v>0</v>
+        <v>-22584497</v>
       </c>
       <c r="N152" s="15">
-        <v>-22584497</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-127477172</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="16" t="s">
         <v>61</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="14" t="s">
         <v>62</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="18" t="s">
         <v>43</v>
       </c>
@@ -5991,8 +5991,8 @@
       <c r="F155" s="19">
         <v>0</v>
       </c>
-      <c r="G155" s="19">
-        <v>0</v>
+      <c r="G155" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="H155" s="19" t="s">
         <v>27</v>
@@ -6016,7 +6016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
         <v>45</v>
       </c>
@@ -6036,11 +6036,11 @@
       <c r="H156" s="15">
         <v>0</v>
       </c>
-      <c r="I156" s="15">
-        <v>0</v>
-      </c>
-      <c r="J156" s="15" t="s">
-        <v>27</v>
+      <c r="I156" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J156" s="15">
+        <v>0</v>
       </c>
       <c r="K156" s="15">
         <v>0</v>
@@ -6055,44 +6055,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
       <c r="E157" s="19">
-        <v>-187691974</v>
+        <v>-180371920</v>
       </c>
       <c r="F157" s="19">
-        <v>-180371920</v>
+        <v>-312368978</v>
       </c>
       <c r="G157" s="19">
-        <v>-312368978</v>
+        <v>-356593170</v>
       </c>
       <c r="H157" s="19">
-        <v>-356593170</v>
+        <v>-409273924</v>
       </c>
       <c r="I157" s="19">
-        <v>-409273924</v>
+        <v>-406763901</v>
       </c>
       <c r="J157" s="19">
-        <v>-406763901</v>
+        <v>-547355090</v>
       </c>
       <c r="K157" s="19">
-        <v>-547355090</v>
+        <v>-518410725</v>
       </c>
       <c r="L157" s="19">
-        <v>-518410725</v>
+        <v>-680289518</v>
       </c>
       <c r="M157" s="19">
-        <v>-680289518</v>
+        <v>-627738569</v>
       </c>
       <c r="N157" s="19">
-        <v>-627738569</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-695540064</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -6107,7 +6107,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -6122,7 +6122,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -6137,7 +6137,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
         <v>63</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -6189,7 +6189,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>64</v>
       </c>
@@ -6206,7 +6206,7 @@
       <c r="M163" s="9"/>
       <c r="N163" s="9"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>16</v>
       </c>
@@ -6215,37 +6215,37 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>2508064</v>
+        <v>12227653</v>
       </c>
       <c r="F164" s="11">
-        <v>12227653</v>
+        <v>12538289</v>
       </c>
       <c r="G164" s="11">
-        <v>12538289</v>
+        <v>12531033</v>
       </c>
       <c r="H164" s="11">
-        <v>12531033</v>
+        <v>6334672</v>
       </c>
       <c r="I164" s="11">
-        <v>6334672</v>
+        <v>11990450</v>
       </c>
       <c r="J164" s="11">
-        <v>11990450</v>
+        <v>20590995</v>
       </c>
       <c r="K164" s="11">
-        <v>20590995</v>
+        <v>39190825</v>
       </c>
       <c r="L164" s="11">
-        <v>39190825</v>
+        <v>36013480</v>
       </c>
       <c r="M164" s="11">
-        <v>36013480</v>
+        <v>10442019</v>
       </c>
       <c r="N164" s="11">
-        <v>10442019</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29405361</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>18</v>
       </c>
@@ -6254,37 +6254,37 @@
       </c>
       <c r="D165" s="13"/>
       <c r="E165" s="13">
-        <v>286344</v>
+        <v>343100</v>
       </c>
       <c r="F165" s="13">
-        <v>343100</v>
+        <v>1050026</v>
       </c>
       <c r="G165" s="13">
-        <v>1050026</v>
+        <v>1273071</v>
       </c>
       <c r="H165" s="13">
-        <v>1273071</v>
+        <v>983921</v>
       </c>
       <c r="I165" s="13">
-        <v>983921</v>
+        <v>960606</v>
       </c>
       <c r="J165" s="13">
-        <v>960606</v>
+        <v>166276</v>
       </c>
       <c r="K165" s="13">
-        <v>166276</v>
+        <v>5319661</v>
       </c>
       <c r="L165" s="13">
-        <v>5319661</v>
+        <v>1984969</v>
       </c>
       <c r="M165" s="13">
-        <v>1984969</v>
+        <v>1466180</v>
       </c>
       <c r="N165" s="13">
-        <v>1466180</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>883741</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>19</v>
       </c>
@@ -6293,37 +6293,37 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>948673</v>
+        <v>3739096</v>
       </c>
       <c r="F166" s="11">
-        <v>3739096</v>
+        <v>2881725</v>
       </c>
       <c r="G166" s="11">
-        <v>2881725</v>
+        <v>3331221</v>
       </c>
       <c r="H166" s="11">
-        <v>3331221</v>
+        <v>2372752</v>
       </c>
       <c r="I166" s="11">
-        <v>2372752</v>
+        <v>3598430</v>
       </c>
       <c r="J166" s="11">
-        <v>3598430</v>
+        <v>6315433</v>
       </c>
       <c r="K166" s="11">
-        <v>6315433</v>
+        <v>7358063</v>
       </c>
       <c r="L166" s="11">
-        <v>7358063</v>
+        <v>3034483</v>
       </c>
       <c r="M166" s="11">
-        <v>3034483</v>
+        <v>4547299</v>
       </c>
       <c r="N166" s="11">
-        <v>4547299</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7701053</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>20</v>
       </c>
@@ -6332,37 +6332,37 @@
       </c>
       <c r="D167" s="13"/>
       <c r="E167" s="13">
-        <v>1175468</v>
+        <v>1061353</v>
       </c>
       <c r="F167" s="13">
-        <v>1061353</v>
+        <v>3924632</v>
       </c>
       <c r="G167" s="13">
-        <v>3924632</v>
+        <v>2369755</v>
       </c>
       <c r="H167" s="13">
-        <v>2369755</v>
+        <v>1051102</v>
       </c>
       <c r="I167" s="13">
-        <v>1051102</v>
+        <v>416480</v>
       </c>
       <c r="J167" s="13">
-        <v>416480</v>
+        <v>5986000</v>
       </c>
       <c r="K167" s="13">
-        <v>5986000</v>
+        <v>3881073</v>
       </c>
       <c r="L167" s="13">
-        <v>3881073</v>
+        <v>1192521</v>
       </c>
       <c r="M167" s="13">
-        <v>1192521</v>
+        <v>693049</v>
       </c>
       <c r="N167" s="13">
-        <v>693049</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1966724</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>21</v>
       </c>
@@ -6371,37 +6371,37 @@
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11">
-        <v>552280</v>
+        <v>3318248</v>
       </c>
       <c r="F168" s="11">
-        <v>3318248</v>
+        <v>2335097</v>
       </c>
       <c r="G168" s="11">
-        <v>2335097</v>
+        <v>2351664</v>
       </c>
       <c r="H168" s="11">
-        <v>2351664</v>
+        <v>3595382</v>
       </c>
       <c r="I168" s="11">
-        <v>3595382</v>
+        <v>5267665</v>
       </c>
       <c r="J168" s="11">
-        <v>5267665</v>
+        <v>11672548</v>
       </c>
       <c r="K168" s="11">
-        <v>11672548</v>
+        <v>4915815</v>
       </c>
       <c r="L168" s="11">
-        <v>4915815</v>
+        <v>2149418</v>
       </c>
       <c r="M168" s="11">
-        <v>2149418</v>
+        <v>3885497</v>
       </c>
       <c r="N168" s="11">
-        <v>3885497</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6668405</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="12" t="s">
         <v>22</v>
       </c>
@@ -6410,37 +6410,37 @@
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="13">
-        <v>643062</v>
+        <v>534043</v>
       </c>
       <c r="F169" s="13">
-        <v>534043</v>
+        <v>838716</v>
       </c>
       <c r="G169" s="13">
-        <v>838716</v>
+        <v>649851</v>
       </c>
       <c r="H169" s="13">
-        <v>649851</v>
+        <v>628562</v>
       </c>
       <c r="I169" s="13">
-        <v>628562</v>
+        <v>1231671</v>
       </c>
       <c r="J169" s="13">
-        <v>1231671</v>
+        <v>1527938</v>
       </c>
       <c r="K169" s="13">
-        <v>1527938</v>
+        <v>1928362</v>
       </c>
       <c r="L169" s="13">
-        <v>1928362</v>
+        <v>764145</v>
       </c>
       <c r="M169" s="13">
-        <v>764145</v>
+        <v>615487</v>
       </c>
       <c r="N169" s="13">
-        <v>615487</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1173254</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>23</v>
       </c>
@@ -6449,37 +6449,37 @@
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
-        <v>32016</v>
+        <v>-9060</v>
       </c>
       <c r="F170" s="11">
-        <v>-9060</v>
+        <v>136345</v>
       </c>
       <c r="G170" s="11">
-        <v>136345</v>
+        <v>178080</v>
       </c>
       <c r="H170" s="11">
-        <v>178080</v>
+        <v>107125</v>
       </c>
       <c r="I170" s="11">
-        <v>107125</v>
+        <v>202846</v>
       </c>
       <c r="J170" s="11">
-        <v>202846</v>
+        <v>87168</v>
       </c>
       <c r="K170" s="11">
-        <v>87168</v>
+        <v>372104</v>
       </c>
       <c r="L170" s="11">
-        <v>372104</v>
+        <v>-173188</v>
       </c>
       <c r="M170" s="11">
-        <v>-173188</v>
+        <v>-396386</v>
       </c>
       <c r="N170" s="11">
-        <v>-396386</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>169868</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>24</v>
       </c>
@@ -6488,37 +6488,37 @@
       </c>
       <c r="D171" s="13"/>
       <c r="E171" s="13">
-        <v>7168173</v>
+        <v>14846915</v>
       </c>
       <c r="F171" s="13">
-        <v>14846915</v>
+        <v>23130981</v>
       </c>
       <c r="G171" s="13">
-        <v>23130981</v>
+        <v>17570620</v>
       </c>
       <c r="H171" s="13">
-        <v>17570620</v>
+        <v>15830334</v>
       </c>
       <c r="I171" s="13">
-        <v>15830334</v>
+        <v>22943178</v>
       </c>
       <c r="J171" s="13">
-        <v>22943178</v>
+        <v>36847235</v>
       </c>
       <c r="K171" s="13">
-        <v>36847235</v>
+        <v>73521338</v>
       </c>
       <c r="L171" s="13">
-        <v>73521338</v>
+        <v>45397138</v>
       </c>
       <c r="M171" s="13">
-        <v>45397138</v>
+        <v>27527912</v>
       </c>
       <c r="N171" s="13">
-        <v>27527912</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38616995</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>25</v>
       </c>
@@ -6527,37 +6527,37 @@
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
-        <v>28227</v>
+        <v>147276</v>
       </c>
       <c r="F172" s="11">
-        <v>147276</v>
+        <v>145546</v>
       </c>
       <c r="G172" s="11">
-        <v>145546</v>
+        <v>84482</v>
       </c>
       <c r="H172" s="11">
-        <v>84482</v>
+        <v>101279</v>
       </c>
       <c r="I172" s="11">
-        <v>101279</v>
+        <v>188974</v>
       </c>
       <c r="J172" s="11">
-        <v>188974</v>
+        <v>216544</v>
       </c>
       <c r="K172" s="11">
-        <v>216544</v>
+        <v>240870</v>
       </c>
       <c r="L172" s="11">
-        <v>240870</v>
+        <v>187161</v>
       </c>
       <c r="M172" s="11">
-        <v>187161</v>
+        <v>24931</v>
       </c>
       <c r="N172" s="11">
-        <v>24931</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>275001</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="12" t="s">
         <v>26</v>
       </c>
@@ -6580,23 +6580,23 @@
       <c r="I173" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J173" s="13" t="s">
-        <v>27</v>
+      <c r="J173" s="13">
+        <v>0</v>
       </c>
       <c r="K173" s="13">
         <v>0</v>
       </c>
       <c r="L173" s="13">
-        <v>0</v>
+        <v>2018977</v>
       </c>
       <c r="M173" s="13">
-        <v>2018977</v>
+        <v>-30156</v>
       </c>
       <c r="N173" s="13">
-        <v>-30156</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2839</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>28</v>
       </c>
@@ -6605,37 +6605,37 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>96</v>
+        <v>308</v>
       </c>
       <c r="F174" s="11">
-        <v>308</v>
+        <v>2562</v>
       </c>
       <c r="G174" s="11">
-        <v>2562</v>
+        <v>315</v>
       </c>
       <c r="H174" s="11">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="I174" s="11">
-        <v>278</v>
+        <v>481</v>
       </c>
       <c r="J174" s="11">
-        <v>481</v>
+        <v>3380</v>
       </c>
       <c r="K174" s="11">
-        <v>3380</v>
+        <v>802</v>
       </c>
       <c r="L174" s="11">
-        <v>802</v>
+        <v>468</v>
       </c>
       <c r="M174" s="11">
-        <v>468</v>
+        <v>376</v>
       </c>
       <c r="N174" s="11">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="12" t="s">
         <v>29</v>
       </c>
@@ -6658,11 +6658,11 @@
       <c r="I175" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J175" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K175" s="13">
-        <v>0</v>
+      <c r="J175" s="13">
+        <v>0</v>
+      </c>
+      <c r="K175" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L175" s="13" t="s">
         <v>27</v>
@@ -6674,7 +6674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>30</v>
       </c>
@@ -6697,11 +6697,11 @@
       <c r="I176" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J176" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K176" s="11">
-        <v>0</v>
+      <c r="J176" s="11">
+        <v>0</v>
+      </c>
+      <c r="K176" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="L176" s="11" t="s">
         <v>27</v>
@@ -6713,7 +6713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="12" t="s">
         <v>31</v>
       </c>
@@ -6722,37 +6722,37 @@
       </c>
       <c r="D177" s="13"/>
       <c r="E177" s="13">
-        <v>58401</v>
+        <v>324063</v>
       </c>
       <c r="F177" s="13">
-        <v>324063</v>
+        <v>237132</v>
       </c>
       <c r="G177" s="13">
-        <v>237132</v>
+        <v>60213</v>
       </c>
       <c r="H177" s="13">
-        <v>60213</v>
+        <v>148180</v>
       </c>
       <c r="I177" s="13">
-        <v>148180</v>
+        <v>204732</v>
       </c>
       <c r="J177" s="13">
-        <v>204732</v>
+        <v>167273</v>
       </c>
       <c r="K177" s="13">
-        <v>167273</v>
+        <v>76216</v>
       </c>
       <c r="L177" s="13">
-        <v>76216</v>
+        <v>62004</v>
       </c>
       <c r="M177" s="13">
-        <v>62004</v>
+        <v>-16792</v>
       </c>
       <c r="N177" s="13">
-        <v>-16792</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+        <v>93538</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>32</v>
       </c>
@@ -6761,37 +6761,37 @@
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
-        <v>24657</v>
+        <v>145356</v>
       </c>
       <c r="F178" s="11">
-        <v>145356</v>
+        <v>29766</v>
       </c>
       <c r="G178" s="11">
-        <v>29766</v>
+        <v>33496</v>
       </c>
       <c r="H178" s="11">
-        <v>33496</v>
+        <v>26419</v>
       </c>
       <c r="I178" s="11">
-        <v>26419</v>
+        <v>91864</v>
       </c>
       <c r="J178" s="11">
-        <v>91864</v>
+        <v>46549</v>
       </c>
       <c r="K178" s="11">
-        <v>46549</v>
+        <v>12986</v>
       </c>
       <c r="L178" s="11">
-        <v>12986</v>
+        <v>66681</v>
       </c>
       <c r="M178" s="11">
-        <v>66681</v>
+        <v>9371</v>
       </c>
       <c r="N178" s="11">
-        <v>9371</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>110218</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="12" t="s">
         <v>33</v>
       </c>
@@ -6800,29 +6800,29 @@
       </c>
       <c r="D179" s="13"/>
       <c r="E179" s="13">
-        <v>143826</v>
+        <v>276204</v>
       </c>
       <c r="F179" s="13">
-        <v>276204</v>
+        <v>306748</v>
       </c>
       <c r="G179" s="13">
-        <v>306748</v>
+        <v>2478</v>
       </c>
       <c r="H179" s="13">
-        <v>2478</v>
+        <v>243081</v>
       </c>
       <c r="I179" s="13">
-        <v>243081</v>
+        <v>274539</v>
       </c>
       <c r="J179" s="13">
-        <v>274539</v>
+        <v>297148</v>
       </c>
       <c r="K179" s="13">
-        <v>297148</v>
-      </c>
-      <c r="L179" s="13">
         <v>1445867</v>
       </c>
+      <c r="L179" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="M179" s="13" t="s">
         <v>27</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>34</v>
       </c>
@@ -6839,37 +6839,37 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>139464</v>
+        <v>644076</v>
       </c>
       <c r="F180" s="11">
-        <v>644076</v>
+        <v>714881</v>
       </c>
       <c r="G180" s="11">
-        <v>714881</v>
+        <v>921294</v>
       </c>
       <c r="H180" s="11">
-        <v>921294</v>
+        <v>1053292</v>
       </c>
       <c r="I180" s="11">
-        <v>1053292</v>
+        <v>1397390</v>
       </c>
       <c r="J180" s="11">
-        <v>1397390</v>
+        <v>1830005</v>
       </c>
       <c r="K180" s="11">
-        <v>1830005</v>
+        <v>3313461</v>
       </c>
       <c r="L180" s="11">
-        <v>3313461</v>
+        <v>1764967</v>
       </c>
       <c r="M180" s="11">
-        <v>1764967</v>
+        <v>593030</v>
       </c>
       <c r="N180" s="11">
-        <v>593030</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1700870</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="12" t="s">
         <v>35</v>
       </c>
@@ -6892,14 +6892,14 @@
       <c r="I181" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J181" s="13" t="s">
-        <v>27</v>
+      <c r="J181" s="13">
+        <v>0</v>
       </c>
       <c r="K181" s="13">
         <v>0</v>
       </c>
-      <c r="L181" s="13">
-        <v>0</v>
+      <c r="L181" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="M181" s="13" t="s">
         <v>27</v>
@@ -6908,7 +6908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>36</v>
       </c>
@@ -6931,14 +6931,14 @@
       <c r="I182" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J182" s="11" t="s">
-        <v>27</v>
+      <c r="J182" s="11">
+        <v>0</v>
       </c>
       <c r="K182" s="11">
         <v>0</v>
       </c>
-      <c r="L182" s="11">
-        <v>0</v>
+      <c r="L182" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="M182" s="11" t="s">
         <v>27</v>
@@ -6947,7 +6947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="12" t="s">
         <v>37</v>
       </c>
@@ -6970,14 +6970,14 @@
       <c r="I183" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J183" s="13" t="s">
-        <v>27</v>
+      <c r="J183" s="13">
+        <v>0</v>
       </c>
       <c r="K183" s="13">
         <v>0</v>
       </c>
-      <c r="L183" s="13">
-        <v>0</v>
+      <c r="L183" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="M183" s="13" t="s">
         <v>27</v>
@@ -6986,44 +6986,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15">
-        <v>13708751</v>
+        <v>37598631</v>
       </c>
       <c r="F184" s="15">
-        <v>37598631</v>
+        <v>48272446</v>
       </c>
       <c r="G184" s="15">
-        <v>48272446</v>
+        <v>41357573</v>
       </c>
       <c r="H184" s="15">
-        <v>41357573</v>
+        <v>32476379</v>
       </c>
       <c r="I184" s="15">
-        <v>32476379</v>
+        <v>48769306</v>
       </c>
       <c r="J184" s="15">
-        <v>48769306</v>
+        <v>85754492</v>
       </c>
       <c r="K184" s="15">
-        <v>85754492</v>
+        <v>141577443</v>
       </c>
       <c r="L184" s="15">
-        <v>141577443</v>
+        <v>94463224</v>
       </c>
       <c r="M184" s="15">
-        <v>94463224</v>
+        <v>49361817</v>
       </c>
       <c r="N184" s="15">
-        <v>49361817</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84829164</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>66</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="M185" s="9"/>
       <c r="N185" s="9"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>16</v>
       </c>
@@ -7049,37 +7049,37 @@
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
-        <v>-61833</v>
+        <v>1111904</v>
       </c>
       <c r="F186" s="11">
-        <v>1111904</v>
+        <v>1907222</v>
       </c>
       <c r="G186" s="11">
-        <v>1907222</v>
+        <v>1005237</v>
       </c>
       <c r="H186" s="11">
-        <v>1005237</v>
+        <v>56524</v>
       </c>
       <c r="I186" s="11">
-        <v>56524</v>
+        <v>214591</v>
       </c>
       <c r="J186" s="11">
-        <v>214591</v>
-      </c>
-      <c r="K186" s="11">
         <v>159868</v>
       </c>
+      <c r="K186" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L186" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M186" s="11" t="s">
-        <v>27</v>
+      <c r="M186" s="11">
+        <v>-798951</v>
       </c>
       <c r="N186" s="11">
-        <v>-798951</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-46682</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="12" t="s">
         <v>20</v>
       </c>
@@ -7088,37 +7088,37 @@
       </c>
       <c r="D187" s="13"/>
       <c r="E187" s="13">
-        <v>3004923</v>
+        <v>7662005</v>
       </c>
       <c r="F187" s="13">
-        <v>7662005</v>
+        <v>14648579</v>
       </c>
       <c r="G187" s="13">
-        <v>14648579</v>
+        <v>12779105</v>
       </c>
       <c r="H187" s="13">
-        <v>12779105</v>
+        <v>9525211</v>
       </c>
       <c r="I187" s="13">
-        <v>9525211</v>
+        <v>6933719</v>
       </c>
       <c r="J187" s="13">
-        <v>6933719</v>
-      </c>
-      <c r="K187" s="13">
         <v>16039901</v>
       </c>
+      <c r="K187" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="L187" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M187" s="13" t="s">
-        <v>27</v>
+      <c r="M187" s="13">
+        <v>-15774930</v>
       </c>
       <c r="N187" s="13">
-        <v>-15774930</v>
-      </c>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5681540</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>21</v>
       </c>
@@ -7150,14 +7150,14 @@
       <c r="L188" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M188" s="11" t="s">
-        <v>27</v>
+      <c r="M188" s="11">
+        <v>1303451</v>
       </c>
       <c r="N188" s="11">
-        <v>1303451</v>
-      </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-968426</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="12" t="s">
         <v>22</v>
       </c>
@@ -7177,14 +7177,14 @@
       <c r="H189" s="13">
         <v>0</v>
       </c>
-      <c r="I189" s="13">
-        <v>0</v>
-      </c>
-      <c r="J189" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K189" s="13">
-        <v>0</v>
+      <c r="I189" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J189" s="13">
+        <v>0</v>
+      </c>
+      <c r="K189" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L189" s="13" t="s">
         <v>27</v>
@@ -7196,7 +7196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>24</v>
       </c>
@@ -7205,37 +7205,37 @@
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
-        <v>265932</v>
+        <v>238414</v>
       </c>
       <c r="F190" s="11">
-        <v>238414</v>
+        <v>111169</v>
       </c>
       <c r="G190" s="11">
-        <v>111169</v>
+        <v>250779</v>
       </c>
       <c r="H190" s="11">
-        <v>250779</v>
+        <v>-22499</v>
       </c>
       <c r="I190" s="11">
-        <v>-22499</v>
+        <v>403356</v>
       </c>
       <c r="J190" s="11">
-        <v>403356</v>
-      </c>
-      <c r="K190" s="11">
         <v>621009</v>
       </c>
+      <c r="K190" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L190" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M190" s="11" t="s">
-        <v>27</v>
+      <c r="M190" s="11">
+        <v>1345549</v>
       </c>
       <c r="N190" s="11">
-        <v>1345549</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3836</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="12" t="s">
         <v>33</v>
       </c>
@@ -7255,14 +7255,14 @@
       <c r="H191" s="13">
         <v>0</v>
       </c>
-      <c r="I191" s="13">
-        <v>0</v>
-      </c>
-      <c r="J191" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K191" s="13">
-        <v>0</v>
+      <c r="I191" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J191" s="13">
+        <v>0</v>
+      </c>
+      <c r="K191" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L191" s="13" t="s">
         <v>27</v>
@@ -7274,44 +7274,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15">
-        <v>3209022</v>
+        <v>9012323</v>
       </c>
       <c r="F192" s="15">
-        <v>9012323</v>
+        <v>16666970</v>
       </c>
       <c r="G192" s="15">
-        <v>16666970</v>
+        <v>14035121</v>
       </c>
       <c r="H192" s="15">
-        <v>14035121</v>
+        <v>9559236</v>
       </c>
       <c r="I192" s="15">
-        <v>9559236</v>
+        <v>7551666</v>
       </c>
       <c r="J192" s="15">
-        <v>7551666</v>
+        <v>16820778</v>
       </c>
       <c r="K192" s="15">
-        <v>16820778</v>
+        <v>0</v>
       </c>
       <c r="L192" s="15">
         <v>0</v>
       </c>
       <c r="M192" s="15">
-        <v>0</v>
+        <v>-13924881</v>
       </c>
       <c r="N192" s="15">
-        <v>-13924881</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6700484</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="16" t="s">
         <v>68</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="M193" s="17"/>
       <c r="N193" s="17"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="14" t="s">
         <v>69</v>
       </c>
@@ -7365,41 +7365,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C195" s="19"/>
       <c r="D195" s="19"/>
       <c r="E195" s="19">
-        <v>16917773</v>
+        <v>46610954</v>
       </c>
       <c r="F195" s="19">
-        <v>46610954</v>
+        <v>64939416</v>
       </c>
       <c r="G195" s="19">
-        <v>64939416</v>
+        <v>55392694</v>
       </c>
       <c r="H195" s="19">
-        <v>55392694</v>
+        <v>42035615</v>
       </c>
       <c r="I195" s="19">
-        <v>42035615</v>
+        <v>56320972</v>
       </c>
       <c r="J195" s="19">
-        <v>56320972</v>
+        <v>102575270</v>
       </c>
       <c r="K195" s="19">
-        <v>102575270</v>
+        <v>141577443</v>
       </c>
       <c r="L195" s="19">
-        <v>141577443</v>
+        <v>94463224</v>
       </c>
       <c r="M195" s="19">
-        <v>94463224</v>
+        <v>35436936</v>
       </c>
       <c r="N195" s="19">
-        <v>35436936</v>
+        <v>78128680</v>
       </c>
     </row>
   </sheetData>
